--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_DLVanLoi.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_DLVanLoi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="28" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="151">
   <si>
     <t>STT</t>
   </si>
@@ -243,9 +243,6 @@
     <t>Còn BH</t>
   </si>
   <si>
-    <t>Thaco Đài Tư (chú Anh)</t>
-  </si>
-  <si>
     <t>TG007X</t>
   </si>
   <si>
@@ -255,30 +252,6 @@
     <t>TOP-1</t>
   </si>
   <si>
-    <t>Honda Giải Phóng (Tùng)</t>
-  </si>
-  <si>
-    <t>anh Phương Hyundai Nguyễn Trãi</t>
-  </si>
-  <si>
-    <t>KIA Long Biên</t>
-  </si>
-  <si>
-    <t>Hyundai Giải Phóng (anh Huy)</t>
-  </si>
-  <si>
-    <t>Kia Long Biên (Chuẩn)</t>
-  </si>
-  <si>
-    <t>Ctv.Kia Giải Phóng.Chuẩn</t>
-  </si>
-  <si>
-    <t>Hyundai Giải Phóng (Thắm)</t>
-  </si>
-  <si>
-    <t>Xuất chuyển đổi cho Thaco Đài Tư</t>
-  </si>
-  <si>
     <t>LE.2.00.---27.200525</t>
   </si>
   <si>
@@ -357,9 +330,6 @@
     <t>ID mới: 202104021100115</t>
   </si>
   <si>
-    <t>ID mới: 202104011440749</t>
-  </si>
-  <si>
     <t>ID mới: 202104021100749</t>
   </si>
   <si>
@@ -367,6 +337,162 @@
   </si>
   <si>
     <t>BT</t>
+  </si>
+  <si>
+    <t>ID mới: 202104060900173</t>
+  </si>
+  <si>
+    <t>ID mới: 202104060900575</t>
+  </si>
+  <si>
+    <t>ID mới: 202104061000980</t>
+  </si>
+  <si>
+    <t>ID mới: 202104061030336</t>
+  </si>
+  <si>
+    <t>ID mới: 202104061330372</t>
+  </si>
+  <si>
+    <t>ID mới: 202104061350464</t>
+  </si>
+  <si>
+    <t>ID mới: 202104061450685</t>
+  </si>
+  <si>
+    <t>LE.1.00.---03.181025</t>
+  </si>
+  <si>
+    <t>ID mới: 202104061630522</t>
+  </si>
+  <si>
+    <t>ID mới: 202104070830253</t>
+  </si>
+  <si>
+    <t>ID mới: 202104070840669</t>
+  </si>
+  <si>
+    <t>ID mới: 202104070950049</t>
+  </si>
+  <si>
+    <t>ID mới: 202104070930781</t>
+  </si>
+  <si>
+    <t>LE.2.00.---25.200220</t>
+  </si>
+  <si>
+    <t>ID mới: 202104070950812</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.18,16886</t>
+  </si>
+  <si>
+    <t>ID mới: 202104071330615</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,21675</t>
+  </si>
+  <si>
+    <t>ID mới: 202104071341720</t>
+  </si>
+  <si>
+    <t>ID mới: 202104071402539</t>
+  </si>
+  <si>
+    <t>ID mới: 202104071419812</t>
+  </si>
+  <si>
+    <t>ID mới:  202104071442951</t>
+  </si>
+  <si>
+    <t>ID mới:  202104080830063</t>
+  </si>
+  <si>
+    <t>ID mới: 202104080901251</t>
+  </si>
+  <si>
+    <t>ID mới:  202104081008608</t>
+  </si>
+  <si>
+    <t>ID mới: 202104081030719</t>
+  </si>
+  <si>
+    <t>ID mới: 202104071130140</t>
+  </si>
+  <si>
+    <t>ID mới: 202104061000908</t>
+  </si>
+  <si>
+    <t>ID mới: 868183035872790</t>
+  </si>
+  <si>
+    <t>ID mới: 202104090853332</t>
+  </si>
+  <si>
+    <t>ID mới: 202104091011032</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16161</t>
+  </si>
+  <si>
+    <t>ID mới: 202104090940437</t>
+  </si>
+  <si>
+    <t>ID mới: 202104091357819</t>
+  </si>
+  <si>
+    <t>ID mới: 202104091132184</t>
+  </si>
+  <si>
+    <t>ID mới: 202104091433299</t>
+  </si>
+  <si>
+    <t>ID mới: 202104081147623</t>
+  </si>
+  <si>
+    <t>ID mới: 202104090901469</t>
+  </si>
+  <si>
+    <t>Thay bộ nhớ unsafe, nâng cấp FW, làm mới thiết bị</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>ID mới: 202104100926749</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>ID mới: 202104100915805</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16969</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhậ sim</t>
+  </si>
+  <si>
+    <t>Thay mosfet, nâng cấp khay sim, làm mới thiết bị</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>W.2.00.---19.200416</t>
+  </si>
+  <si>
+    <t>ID mới: 202104101027009</t>
+  </si>
+  <si>
+    <t>ID mới: 202104101155250</t>
+  </si>
+  <si>
+    <t>ID mới: 202104101350908</t>
   </si>
 </sst>
 </file>
@@ -1078,8 +1204,2847 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="L22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N47" sqref="N47"/>
+    <sheetView showZeros="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="17" style="20" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="20" customWidth="1"/>
+    <col min="10" max="10" width="53" style="20" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
+    <col min="13" max="13" width="47.28515625" style="20" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="20" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="20" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="20" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="20" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="20" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="20"/>
+    <col min="21" max="21" width="30.5703125" style="20" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="20" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="20" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="48"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="66"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="27"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="27"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="61"/>
+      <c r="M4" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="27"/>
+      <c r="U4" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="49"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="67"/>
+      <c r="B5" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="61"/>
+      <c r="K5" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="49"/>
+    </row>
+    <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="39">
+        <v>868183037836819</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="J6" s="40"/>
+      <c r="K6" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="54"/>
+    </row>
+    <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="39">
+        <v>868183035850184</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="40"/>
+      <c r="K7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="4"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="54"/>
+    </row>
+    <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="39">
+        <v>868183035926299</v>
+      </c>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="40"/>
+      <c r="K8" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="4"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="54"/>
+    </row>
+    <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="39">
+        <v>868183035872790</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="S9" s="4"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="54"/>
+    </row>
+    <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="39">
+        <v>868183034638812</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="40"/>
+      <c r="K10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="4"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="54"/>
+    </row>
+    <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="39">
+        <v>868183035932032</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="40"/>
+      <c r="K11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="4"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="54"/>
+    </row>
+    <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="39">
+        <v>860157040211812</v>
+      </c>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="40"/>
+      <c r="K12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" s="4"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="54"/>
+    </row>
+    <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="39">
+        <v>868183035891253</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S13" s="4"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="54"/>
+    </row>
+    <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="39">
+        <v>868183034726781</v>
+      </c>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="40"/>
+      <c r="K14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="S14" s="4"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="54"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="39">
+        <v>868183034653951</v>
+      </c>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="40"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="S15" s="4"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="54"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="39">
+        <v>868183034645437</v>
+      </c>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" s="40"/>
+      <c r="M16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S16" s="4"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="54"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="39">
+        <v>868183034732615</v>
+      </c>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="I17" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="J17" s="40"/>
+      <c r="K17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="S17" s="4"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="54"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="39">
+        <v>868183038519539</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="10"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="14"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="39">
+        <v>868183033853669</v>
+      </c>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S19" s="4"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="50"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="39">
+        <v>868183034675251</v>
+      </c>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S20" s="4"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>43</v>
+      </c>
+      <c r="W20" s="14"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="39">
+        <v>868183035933063</v>
+      </c>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="S21" s="4"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="14"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="39">
+        <v>868183035879332</v>
+      </c>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S22" s="4"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>1</v>
+      </c>
+      <c r="W22" s="14"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="39">
+        <v>868183034532049</v>
+      </c>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S23" s="4"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="14"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="39">
+        <v>868183034811336</v>
+      </c>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S24" s="4"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="14"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="39">
+        <v>868183035921464</v>
+      </c>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N25" s="10"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S25" s="4"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="50"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>21</v>
+      </c>
+      <c r="B26" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="39">
+        <v>868183038533720</v>
+      </c>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N26" s="10"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S26" s="4"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="14"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>22</v>
+      </c>
+      <c r="B27" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="39">
+        <v>868183034625140</v>
+      </c>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27" s="10"/>
+      <c r="M27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N27" s="10"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S27" s="4"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="14"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="39">
+        <v>868183034540372</v>
+      </c>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S28" s="4"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="14"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>24</v>
+      </c>
+      <c r="B29" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="39">
+        <v>868183034759469</v>
+      </c>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L29" s="10"/>
+      <c r="M29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R29" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="S29" s="4"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>1</v>
+      </c>
+      <c r="W29" s="14"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>25</v>
+      </c>
+      <c r="B30" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="39">
+        <v>868183034609623</v>
+      </c>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R30" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="S30" s="4"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="10">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="14"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>26</v>
+      </c>
+      <c r="B31" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C31" s="9">
+        <v>44320</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="39">
+        <v>868183034540885</v>
+      </c>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R31" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S31" s="4"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="10">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="14"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>27</v>
+      </c>
+      <c r="B32" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="39">
+        <v>868183034679980</v>
+      </c>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R32" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S32" s="4"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="14"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C33" s="9">
+        <v>44320</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="39">
+        <v>868183035934749</v>
+      </c>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R33" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S33" s="4"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="10">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="14"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>29</v>
+      </c>
+      <c r="B34" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="39">
+        <v>868183035946719</v>
+      </c>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L34" s="1"/>
+      <c r="M34" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="N34" s="1"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R34" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="S34" s="4"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="10">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="14"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>30</v>
+      </c>
+      <c r="B35" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="39">
+        <v>868183035849608</v>
+      </c>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L35" s="1"/>
+      <c r="M35" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="N35" s="1"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R35" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="S35" s="4"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>30</v>
+      </c>
+      <c r="W35" s="14"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>31</v>
+      </c>
+      <c r="B36" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="39">
+        <v>868183034734173</v>
+      </c>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R36" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S36" s="4"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="10">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>12</v>
+      </c>
+      <c r="W36" s="14"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>32</v>
+      </c>
+      <c r="B37" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C37" s="9">
+        <v>44320</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="39">
+        <v>868183035872972</v>
+      </c>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R37" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="S37" s="4"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="10">
+        <f>SUM(V26:V36)</f>
+        <v>43</v>
+      </c>
+      <c r="W37" s="14"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>33</v>
+      </c>
+      <c r="B38" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="39">
+        <v>868183035885685</v>
+      </c>
+      <c r="F38" s="56"/>
+      <c r="G38" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R38" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="S38" s="4"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="14"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>34</v>
+      </c>
+      <c r="B39" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="39">
+        <v>868183034811575</v>
+      </c>
+      <c r="F39" s="56"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R39" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S39" s="4"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="14"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>35</v>
+      </c>
+      <c r="B40" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="39">
+        <v>868183034790522</v>
+      </c>
+      <c r="F40" s="56"/>
+      <c r="G40" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R40" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S40" s="4"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="10">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="14"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>36</v>
+      </c>
+      <c r="B41" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C41" s="9">
+        <v>44320</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="39">
+        <v>868183034680749</v>
+      </c>
+      <c r="F41" s="56"/>
+      <c r="G41" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R41" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="S41" s="4"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="10">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="14"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>37</v>
+      </c>
+      <c r="B42" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="39">
+        <v>868183034645908</v>
+      </c>
+      <c r="F42" s="56"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R42" s="10"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="14"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>38</v>
+      </c>
+      <c r="B43" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C43" s="9">
+        <v>44320</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="39">
+        <v>868183034553607</v>
+      </c>
+      <c r="F43" s="56"/>
+      <c r="G43" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R43" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S43" s="4"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="14"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>39</v>
+      </c>
+      <c r="B44" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C44" s="9">
+        <v>44320</v>
+      </c>
+      <c r="D44" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="39">
+        <v>868183034683115</v>
+      </c>
+      <c r="F44" s="56"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R44" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S44" s="4"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>40</v>
+      </c>
+      <c r="B45" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C45" s="9">
+        <v>44320</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="39">
+        <v>867717030479126</v>
+      </c>
+      <c r="F45" s="56"/>
+      <c r="G45" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N45" s="53">
+        <v>10000</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="R45" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="S45" s="4"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>41</v>
+      </c>
+      <c r="B46" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C46" s="9">
+        <v>44320</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="39">
+        <v>868183035900989</v>
+      </c>
+      <c r="F46" s="56"/>
+      <c r="G46" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R46" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S46" s="4"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>42</v>
+      </c>
+      <c r="B47" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C47" s="9">
+        <v>44320</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="39">
+        <v>868183035882468</v>
+      </c>
+      <c r="F47" s="56"/>
+      <c r="G47" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R47" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S47" s="4"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>43</v>
+      </c>
+      <c r="B48" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C48" s="9">
+        <v>44320</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="39">
+        <v>868183034701198</v>
+      </c>
+      <c r="F48" s="56"/>
+      <c r="G48" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R48" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S48" s="4"/>
+      <c r="T48" s="35">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>44</v>
+      </c>
+      <c r="B49" s="37">
+        <v>44200</v>
+      </c>
+      <c r="C49" s="9">
+        <v>44320</v>
+      </c>
+      <c r="D49" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="39">
+        <v>868183034641923</v>
+      </c>
+      <c r="F49" s="56"/>
+      <c r="G49" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R49" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S49" s="4"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="47"/>
+      <c r="V49" s="47"/>
+      <c r="W49" s="47"/>
+      <c r="X49" s="33"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="29">
+        <v>45</v>
+      </c>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="46"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="47"/>
+      <c r="V50" s="47"/>
+      <c r="W50" s="47"/>
+      <c r="X50" s="33"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>46</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="47"/>
+      <c r="V51" s="47"/>
+      <c r="W51" s="47"/>
+      <c r="X51" s="33"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>47</v>
+      </c>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="47"/>
+      <c r="V52" s="47"/>
+      <c r="W52" s="47"/>
+      <c r="X52" s="33"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>48</v>
+      </c>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="47"/>
+      <c r="V53" s="47"/>
+      <c r="W53" s="47"/>
+      <c r="X53" s="33"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>49</v>
+      </c>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="47"/>
+      <c r="V54" s="47"/>
+      <c r="W54" s="47"/>
+      <c r="X54" s="33"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>50</v>
+      </c>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="47"/>
+      <c r="V55" s="47"/>
+      <c r="W55" s="47"/>
+      <c r="X55" s="33"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="25"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="25"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="25"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X57"/>
+  <sheetViews>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1296,16 +4261,18 @@
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="38" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="E6" s="39">
-        <v>868183037836819</v>
-      </c>
-      <c r="F6" s="38"/>
+        <v>868183037843112</v>
+      </c>
+      <c r="F6" s="56"/>
       <c r="G6" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="38"/>
+      <c r="H6" s="38" t="s">
+        <v>68</v>
+      </c>
       <c r="I6" s="51"/>
       <c r="J6" s="40"/>
       <c r="K6" s="43"/>
@@ -1335,26 +4302,38 @@
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="38" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="E7" s="39">
-        <v>868183035850184</v>
-      </c>
-      <c r="F7" s="38"/>
+        <v>868183034533989</v>
+      </c>
+      <c r="F7" s="56"/>
       <c r="G7" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="38"/>
+      <c r="H7" s="38" t="s">
+        <v>68</v>
+      </c>
       <c r="I7" s="40"/>
       <c r="J7" s="40"/>
       <c r="K7" s="1"/>
       <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="3"/>
+      <c r="M7" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="N7" s="3">
+        <v>120000</v>
+      </c>
       <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="P7" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>138</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
       <c r="U7" s="58"/>
@@ -1367,20 +4346,12 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B8" s="37"/>
       <c r="C8" s="37"/>
-      <c r="D8" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="39">
-        <v>868183035926299</v>
-      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="38"/>
-      <c r="G8" s="38" t="s">
-        <v>66</v>
-      </c>
+      <c r="G8" s="38"/>
       <c r="H8" s="38"/>
       <c r="I8" s="40"/>
       <c r="J8" s="40"/>
@@ -1404,21 +4375,13 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B9" s="37"/>
       <c r="C9" s="37"/>
-      <c r="D9" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="39">
-        <v>868183035872790</v>
-      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="38"/>
-      <c r="G9" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="40"/>
       <c r="J9" s="40"/>
       <c r="K9" s="40"/>
@@ -1441,21 +4404,13 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B10" s="37"/>
       <c r="C10" s="37"/>
-      <c r="D10" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="39">
-        <v>868183034638812</v>
-      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
       <c r="F10" s="38"/>
-      <c r="G10" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="40"/>
       <c r="J10" s="40"/>
       <c r="K10" s="1"/>
@@ -1478,21 +4433,13 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B11" s="37"/>
       <c r="C11" s="37"/>
-      <c r="D11" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="39">
-        <v>868183035932032</v>
-      </c>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="38"/>
-      <c r="G11" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="40"/>
       <c r="J11" s="40"/>
       <c r="K11" s="1"/>
@@ -1515,21 +4462,13 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B12" s="37"/>
       <c r="C12" s="37"/>
-      <c r="D12" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="39">
-        <v>860157040211812</v>
-      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
       <c r="F12" s="38"/>
-      <c r="G12" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="40"/>
       <c r="K12" s="1"/>
@@ -1554,21 +4493,13 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B13" s="37"/>
       <c r="C13" s="37"/>
-      <c r="D13" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="39">
-        <v>868183035891253</v>
-      </c>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="38"/>
-      <c r="G13" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="13"/>
       <c r="I13" s="40"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1591,19 +4522,13 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B14" s="37"/>
       <c r="C14" s="37"/>
-      <c r="D14" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="39">
-        <v>868183034726781</v>
-      </c>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+      <c r="H14" s="1"/>
       <c r="I14" s="40"/>
       <c r="J14" s="40"/>
       <c r="K14" s="1"/>
@@ -1626,21 +4551,13 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B15" s="37"/>
       <c r="C15" s="37"/>
-      <c r="D15" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="39">
-        <v>868183034653951</v>
-      </c>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
       <c r="F15" s="38"/>
-      <c r="G15" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="40"/>
       <c r="K15" s="1"/>
@@ -1663,19 +4580,13 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B16" s="37"/>
       <c r="C16" s="37"/>
-      <c r="D16" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="39">
-        <v>868183034645437</v>
-      </c>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1698,21 +4609,13 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B17" s="37"/>
       <c r="C17" s="37"/>
-      <c r="D17" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="39">
-        <v>868183034732615</v>
-      </c>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
       <c r="F17" s="38"/>
-      <c r="G17" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="1"/>
       <c r="I17" s="40"/>
       <c r="J17" s="40"/>
       <c r="K17" s="1"/>
@@ -1733,21 +4636,13 @@
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B18" s="9"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="39">
-        <v>868183038519539</v>
-      </c>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
       <c r="F18" s="38"/>
-      <c r="G18" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1768,21 +4663,13 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="39">
-        <v>868183033853669</v>
-      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
       <c r="F19" s="38"/>
-      <c r="G19" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1807,19 +4694,13 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="39">
-        <v>868183034675251</v>
-      </c>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1837,7 +4718,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -1845,21 +4726,13 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B21" s="9"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="39">
-        <v>868183035933063</v>
-      </c>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="38"/>
-      <c r="G21" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1885,21 +4758,13 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B22" s="9"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="39">
-        <v>868183035879332</v>
-      </c>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
       <c r="F22" s="38"/>
-      <c r="G22" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="10"/>
       <c r="I22" s="1"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
@@ -1925,19 +4790,13 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B23" s="9"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="39">
-        <v>868183034532049</v>
-      </c>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
+      <c r="H23" s="10"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
@@ -1958,21 +4817,13 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="39">
-        <v>868183034811336</v>
-      </c>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
       <c r="F24" s="38"/>
-      <c r="G24" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="10"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
@@ -1993,21 +4844,13 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="39">
-        <v>868183035921464</v>
-      </c>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
       <c r="F25" s="38"/>
-      <c r="G25" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="10"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
@@ -2032,19 +4875,13 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="39">
-        <v>868183038533720</v>
-      </c>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
+      <c r="H26" s="10"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
@@ -2070,19 +4907,13 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="39">
-        <v>868183034625140</v>
-      </c>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
+      <c r="H27" s="10"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
@@ -2108,21 +4939,13 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="39">
-        <v>868183034540372</v>
-      </c>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
       <c r="F28" s="38"/>
-      <c r="G28" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -2148,21 +4971,13 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="39">
-        <v>868183034759469</v>
-      </c>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
       <c r="F29" s="38"/>
-      <c r="G29" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -2180,7 +4995,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -2188,21 +5003,13 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="39">
-        <v>868183034609623</v>
-      </c>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H30" s="38"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -2228,51 +5035,23 @@
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C31" s="9">
-        <v>44320</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="39">
-        <v>868183034540885</v>
-      </c>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R31" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="10"/>
       <c r="S31" s="4"/>
       <c r="T31" s="14"/>
       <c r="U31" s="4" t="s">
@@ -2280,7 +5059,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -2288,20 +5067,12 @@
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="39">
-        <v>868183034679980</v>
-      </c>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38" t="s">
-        <v>66</v>
-      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -2328,49 +5099,23 @@
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C33" s="9">
-        <v>44320</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="39">
-        <v>868183035934749</v>
-      </c>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R33" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="10"/>
       <c r="S33" s="4"/>
       <c r="T33" s="14"/>
       <c r="U33" s="4" t="s">
@@ -2386,20 +5131,12 @@
       <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B34" s="9"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="39">
-        <v>868183035946719</v>
-      </c>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38" t="s">
-        <v>66</v>
-      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -2426,20 +5163,12 @@
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B35" s="9"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="39">
-        <v>868183035849608</v>
-      </c>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38" t="s">
-        <v>66</v>
-      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -2458,7 +5187,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2466,20 +5195,12 @@
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B36" s="9"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="39">
-        <v>868183034734173</v>
-      </c>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38" t="s">
-        <v>66</v>
-      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -2498,7 +5219,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -2506,49 +5227,23 @@
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C37" s="9">
-        <v>44320</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="39">
-        <v>868183035872972</v>
-      </c>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="M37" s="1"/>
       <c r="N37" s="1"/>
-      <c r="O37" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R37" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="10"/>
       <c r="S37" s="4"/>
       <c r="T37" s="14"/>
       <c r="U37" s="18" t="s">
@@ -2556,7 +5251,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2564,20 +5259,12 @@
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B38" s="9"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38" s="39">
-        <v>868183035885685</v>
-      </c>
-      <c r="F38" s="56"/>
-      <c r="G38" s="38" t="s">
-        <v>66</v>
-      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -2599,18 +5286,12 @@
       <c r="A39" s="4">
         <v>34</v>
       </c>
-      <c r="B39" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B39" s="9"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="39">
-        <v>868183034811575</v>
-      </c>
-      <c r="F39" s="56"/>
-      <c r="G39" s="38"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -2632,20 +5313,12 @@
       <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B40" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B40" s="9"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E40" s="39">
-        <v>868183034790522</v>
-      </c>
-      <c r="F40" s="56"/>
-      <c r="G40" s="38" t="s">
-        <v>62</v>
-      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -2672,49 +5345,23 @@
       <c r="A41" s="4">
         <v>36</v>
       </c>
-      <c r="B41" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C41" s="9">
-        <v>44320</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="39">
-        <v>868183034680749</v>
-      </c>
-      <c r="F41" s="56"/>
-      <c r="G41" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="M41" s="1"/>
       <c r="N41" s="1"/>
-      <c r="O41" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q41" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R41" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="10"/>
       <c r="S41" s="4"/>
       <c r="T41" s="14"/>
       <c r="U41" s="18" t="s">
@@ -2730,18 +5377,12 @@
       <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B42" s="9"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" s="39">
-        <v>868183034645908</v>
-      </c>
-      <c r="F42" s="56"/>
-      <c r="G42" s="38"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -2763,51 +5404,23 @@
       <c r="A43" s="4">
         <v>38</v>
       </c>
-      <c r="B43" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C43" s="9">
-        <v>44320</v>
-      </c>
-      <c r="D43" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="39">
-        <v>868183034553607</v>
-      </c>
-      <c r="F43" s="56"/>
-      <c r="G43" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
       <c r="N43" s="1"/>
-      <c r="O43" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q43" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R43" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="10"/>
       <c r="S43" s="4"/>
       <c r="T43" s="14"/>
       <c r="U43" s="14"/>
@@ -2818,49 +5431,23 @@
       <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C44" s="9">
-        <v>44320</v>
-      </c>
-      <c r="D44" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E44" s="39">
-        <v>868183034683115</v>
-      </c>
-      <c r="F44" s="56"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
       <c r="N44" s="1"/>
-      <c r="O44" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q44" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R44" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="10"/>
       <c r="S44" s="4"/>
       <c r="T44" s="14"/>
       <c r="U44" s="10" t="s">
@@ -2880,55 +5467,23 @@
       <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C45" s="9">
-        <v>44320</v>
-      </c>
-      <c r="D45" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" s="39">
-        <v>867717030479126</v>
-      </c>
-      <c r="F45" s="56"/>
-      <c r="G45" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="N45" s="53">
-        <v>10000</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q45" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="R45" s="10" t="s">
-        <v>103</v>
-      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="10"/>
       <c r="S45" s="4"/>
       <c r="T45" s="14"/>
       <c r="U45" s="10" t="s">
@@ -2951,51 +5506,23 @@
       <c r="A46" s="4">
         <v>41</v>
       </c>
-      <c r="B46" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C46" s="9">
-        <v>44320</v>
-      </c>
-      <c r="D46" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E46" s="39">
-        <v>868183035900989</v>
-      </c>
-      <c r="F46" s="56"/>
-      <c r="G46" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
       <c r="N46" s="1"/>
-      <c r="O46" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q46" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R46" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="10"/>
       <c r="S46" s="4"/>
       <c r="T46" s="14"/>
       <c r="U46" s="10" t="s">
@@ -3018,51 +5545,23 @@
       <c r="A47" s="4">
         <v>42</v>
       </c>
-      <c r="B47" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C47" s="9">
-        <v>44320</v>
-      </c>
-      <c r="D47" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E47" s="39">
-        <v>868183035882468</v>
-      </c>
-      <c r="F47" s="56"/>
-      <c r="G47" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
       <c r="N47" s="1"/>
-      <c r="O47" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q47" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R47" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="10"/>
       <c r="S47" s="4"/>
       <c r="T47" s="14"/>
       <c r="U47" s="10" t="s">
@@ -3085,51 +5584,23 @@
       <c r="A48" s="4">
         <v>43</v>
       </c>
-      <c r="B48" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C48" s="9">
-        <v>44320</v>
-      </c>
-      <c r="D48" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E48" s="39">
-        <v>868183034701198</v>
-      </c>
-      <c r="F48" s="56"/>
-      <c r="G48" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
       <c r="N48" s="1"/>
-      <c r="O48" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q48" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R48" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="10"/>
       <c r="S48" s="4"/>
       <c r="T48" s="35">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
@@ -3155,51 +5626,23 @@
       <c r="A49" s="4">
         <v>44</v>
       </c>
-      <c r="B49" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C49" s="9">
-        <v>44320</v>
-      </c>
-      <c r="D49" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E49" s="39">
-        <v>868183034641923</v>
-      </c>
-      <c r="F49" s="56"/>
-      <c r="G49" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
       <c r="J49" s="1"/>
-      <c r="K49" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
       <c r="N49" s="1"/>
-      <c r="O49" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q49" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R49" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
       <c r="U49" s="47"/>
@@ -3411,12 +5854,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3631,25 +6074,31 @@
       <c r="B6" s="37">
         <v>44200</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44320</v>
+      </c>
       <c r="D6" s="38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E6" s="39">
-        <v>868183037843112</v>
+        <v>868183034709415</v>
       </c>
       <c r="F6" s="56"/>
-      <c r="G6" s="38" t="s">
-        <v>66</v>
-      </c>
+      <c r="G6" s="38"/>
       <c r="H6" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="51"/>
+        <v>75</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>72</v>
+      </c>
       <c r="J6" s="40"/>
-      <c r="K6" s="43"/>
+      <c r="K6" s="43" t="s">
+        <v>70</v>
+      </c>
       <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="M6" s="40" t="s">
+        <v>71</v>
+      </c>
       <c r="N6" s="42"/>
       <c r="O6" s="40"/>
       <c r="P6" s="40"/>
@@ -3669,23 +6118,13 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B7" s="37"/>
       <c r="C7" s="37"/>
-      <c r="D7" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="39">
-        <v>868183034533989</v>
-      </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>69</v>
-      </c>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
       <c r="I7" s="40"/>
       <c r="J7" s="40"/>
       <c r="K7" s="1"/>
@@ -5216,12 +7655,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5386,35 +7825,35 @@
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="67"/>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="61"/>
-      <c r="K5" s="55" t="s">
+      <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="55" t="s">
+      <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
       <c r="M5" s="69"/>
@@ -5436,55 +7875,69 @@
       <c r="B6" s="37">
         <v>44200</v>
       </c>
-      <c r="C6" s="37">
-        <v>44320</v>
-      </c>
+      <c r="C6" s="37"/>
       <c r="D6" s="38" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E6" s="39">
-        <v>868183034709415</v>
+        <v>868926033962009</v>
       </c>
       <c r="F6" s="56"/>
-      <c r="G6" s="38"/>
+      <c r="G6" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="H6" s="38" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="I6" s="51" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="J6" s="40"/>
       <c r="K6" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" s="40"/>
+        <v>147</v>
+      </c>
+      <c r="L6" s="41" t="s">
+        <v>140</v>
+      </c>
       <c r="M6" s="40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N6" s="42"/>
       <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="P6" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="54"/>
+      <c r="T6" s="44"/>
       <c r="U6" s="57" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="54"/>
+      <c r="W6" s="44"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="37">
+        <v>44200</v>
+      </c>
       <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="38"/>
+      <c r="D7" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="39">
+        <v>864811036931439</v>
+      </c>
+      <c r="F7" s="56"/>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
       <c r="I7" s="40"/>
@@ -5498,53 +7951,85 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
-      <c r="T7" s="54"/>
+      <c r="T7" s="44"/>
       <c r="U7" s="58"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="54"/>
+      <c r="W7" s="44"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="37">
+        <v>44200</v>
+      </c>
       <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
+      <c r="D8" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="39">
+        <v>868926034002805</v>
+      </c>
+      <c r="F8" s="56"/>
+      <c r="G8" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>140</v>
+      </c>
       <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="M8" s="40" t="s">
+        <v>144</v>
+      </c>
       <c r="N8" s="53"/>
       <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="54"/>
+      <c r="P8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="T8" s="44"/>
       <c r="U8" s="58"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="54"/>
+      <c r="W8" s="44"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
+      <c r="B9" s="37">
+        <v>44200</v>
+      </c>
       <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="38"/>
+      <c r="D9" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="39">
+        <v>864811036961220</v>
+      </c>
+      <c r="F9" s="56"/>
       <c r="G9" s="38"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="38"/>
       <c r="I9" s="40"/>
       <c r="J9" s="40"/>
       <c r="K9" s="40"/>
@@ -5556,24 +8041,32 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="54"/>
+      <c r="T9" s="44"/>
       <c r="U9" s="58"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="54"/>
+      <c r="W9" s="44"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
+      <c r="B10" s="37">
+        <v>44200</v>
+      </c>
       <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="2"/>
+      <c r="D10" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="39">
+        <v>868926033944692</v>
+      </c>
+      <c r="F10" s="56"/>
+      <c r="G10" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="38"/>
       <c r="I10" s="40"/>
       <c r="J10" s="40"/>
       <c r="K10" s="1"/>
@@ -5585,24 +8078,32 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="54"/>
+      <c r="T10" s="44"/>
       <c r="U10" s="58"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="54"/>
+      <c r="W10" s="44"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="37"/>
+      <c r="B11" s="37">
+        <v>44200</v>
+      </c>
       <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="2"/>
+      <c r="D11" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="39">
+        <v>868345031039175</v>
+      </c>
+      <c r="F11" s="56"/>
+      <c r="G11" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="38"/>
       <c r="I11" s="40"/>
       <c r="J11" s="40"/>
       <c r="K11" s="1"/>
@@ -5614,24 +8115,32 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="54"/>
+      <c r="T11" s="44"/>
       <c r="U11" s="58"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="54"/>
+      <c r="W11" s="44"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="37"/>
+      <c r="B12" s="37">
+        <v>44200</v>
+      </c>
       <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="1"/>
+      <c r="D12" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="39">
+        <v>868926033963692</v>
+      </c>
+      <c r="F12" s="56"/>
+      <c r="G12" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="38"/>
       <c r="I12" s="1"/>
       <c r="J12" s="40"/>
       <c r="K12" s="1"/>
@@ -5643,55 +8152,87 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="54"/>
+      <c r="T12" s="44"/>
       <c r="U12" s="57" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="54"/>
+      <c r="W12" s="44"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="37"/>
+      <c r="B13" s="37">
+        <v>44200</v>
+      </c>
       <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="40"/>
+      <c r="D13" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="39">
+        <v>868926033941250</v>
+      </c>
+      <c r="F13" s="56"/>
+      <c r="G13" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="I13" s="40" t="s">
+        <v>84</v>
+      </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="N13" s="1"/>
       <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="10"/>
+      <c r="P13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S13" s="4"/>
-      <c r="T13" s="54"/>
+      <c r="T13" s="44"/>
       <c r="U13" s="58"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="54"/>
+      <c r="W13" s="44"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="37"/>
+      <c r="B14" s="37">
+        <v>44200</v>
+      </c>
       <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="1"/>
+      <c r="D14" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="39">
+        <v>868926033937050</v>
+      </c>
+      <c r="F14" s="56"/>
+      <c r="G14" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="38"/>
       <c r="I14" s="40"/>
       <c r="J14" s="40"/>
       <c r="K14" s="1"/>
@@ -5703,53 +8244,85 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="54"/>
+      <c r="T14" s="44"/>
       <c r="U14" s="58"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="54"/>
+      <c r="W14" s="44"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="37"/>
+      <c r="B15" s="37">
+        <v>44200</v>
+      </c>
       <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="D15" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="39">
+        <v>868926033944908</v>
+      </c>
+      <c r="F15" s="56"/>
+      <c r="G15" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>84</v>
+      </c>
       <c r="J15" s="40"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="K15" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="N15" s="1"/>
       <c r="O15" s="40"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="38"/>
+      <c r="P15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
       <c r="U15" s="58"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="54"/>
+      <c r="W15" s="44"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="37"/>
+      <c r="B16" s="37">
+        <v>44200</v>
+      </c>
       <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="1"/>
+      <c r="D16" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="39">
+        <v>866192037771571</v>
+      </c>
+      <c r="F16" s="56"/>
+      <c r="G16" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="38"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -5766,7 +8339,7 @@
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="54"/>
+      <c r="W16" s="44"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -5791,9 +8364,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="54"/>
+      <c r="U17" s="44"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="54"/>
+      <c r="W17" s="44"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -5845,7 +8418,7 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="55" t="s">
+      <c r="U19" s="45" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
@@ -5881,7 +8454,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -5945,7 +8518,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -6026,7 +8599,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="55" t="s">
+      <c r="U25" s="45" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
@@ -6222,7 +8795,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -6350,7 +8923,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -6414,1894 +8987,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
-      </c>
-      <c r="W37" s="14"/>
-    </row>
-    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>33</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="14"/>
-    </row>
-    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>34</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="14"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="14"/>
-    </row>
-    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>35</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="V40" s="10">
-        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
-      </c>
-      <c r="W40" s="14"/>
-    </row>
-    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>36</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="V41" s="10">
-        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
-      </c>
-      <c r="W41" s="14"/>
-    </row>
-    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>37</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="16"/>
-      <c r="W42" s="14"/>
-    </row>
-    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>38</v>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="14"/>
-      <c r="U43" s="14"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="14"/>
-    </row>
-    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>39</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="V44" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="W44" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="X44" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
-        <v>40</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="14"/>
-      <c r="U45" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="V45" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W45" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X45" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>41</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="14"/>
-      <c r="U46" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="V46" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W46" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X46" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>42</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="14"/>
-      <c r="U47" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="V47" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W47" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X47" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <v>43</v>
-      </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="35">
-        <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
-      </c>
-      <c r="U48" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="V48" s="10">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W48" s="10">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X48" s="10">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <v>44</v>
-      </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
-      <c r="X49" s="33"/>
-    </row>
-    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="29">
-        <v>45</v>
-      </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
-      <c r="O50" s="32"/>
-      <c r="P50" s="32"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="46"/>
-      <c r="S50" s="29"/>
-      <c r="T50" s="35"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47"/>
-      <c r="X50" s="33"/>
-    </row>
-    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <v>46</v>
-      </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="35"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="47"/>
-      <c r="X51" s="33"/>
-    </row>
-    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>47</v>
-      </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="33"/>
-      <c r="N52" s="33"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="33"/>
-      <c r="R52" s="33"/>
-      <c r="S52" s="33"/>
-      <c r="T52" s="35"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
-      <c r="X52" s="33"/>
-    </row>
-    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
-        <v>48</v>
-      </c>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="33"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="33"/>
-      <c r="S53" s="33"/>
-      <c r="T53" s="35"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
-      <c r="X53" s="33"/>
-    </row>
-    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
-        <v>49</v>
-      </c>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="33"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="33"/>
-      <c r="R54" s="33"/>
-      <c r="S54" s="33"/>
-      <c r="T54" s="35"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
-      <c r="X54" s="33"/>
-    </row>
-    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
-        <v>50</v>
-      </c>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="33"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="36"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
-      <c r="X55" s="33"/>
-    </row>
-    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U56" s="25"/>
-      <c r="V56" s="25"/>
-      <c r="W56" s="25"/>
-    </row>
-    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U57" s="25"/>
-      <c r="V57" s="25"/>
-      <c r="W57" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X57"/>
-  <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
-    <col min="7" max="7" width="17" style="20" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="20" customWidth="1"/>
-    <col min="10" max="10" width="53" style="20" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
-    <col min="13" max="13" width="58" style="20" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" style="20" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="20" customWidth="1"/>
-    <col min="16" max="16" width="37.7109375" style="20" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="20" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="20" customWidth="1"/>
-    <col min="19" max="19" width="26.85546875" style="20" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="20"/>
-    <col min="21" max="21" width="30.5703125" style="20" customWidth="1"/>
-    <col min="22" max="23" width="21.42578125" style="20" customWidth="1"/>
-    <col min="24" max="24" width="21.7109375" style="20" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="20"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="48"/>
-    </row>
-    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="27"/>
-    </row>
-    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="27"/>
-    </row>
-    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="T4" s="27"/>
-      <c r="U4" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="V4" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="W4" s="49"/>
-    </row>
-    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
-      <c r="B5" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="45" t="s">
         <v>4</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="61"/>
-      <c r="K5" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="49"/>
-    </row>
-    <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="39">
-        <v>868926033962009</v>
-      </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="51"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="W6" s="44"/>
-    </row>
-    <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>2</v>
-      </c>
-      <c r="B7" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="39">
-        <v>864811036931439</v>
-      </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="W7" s="44"/>
-    </row>
-    <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>3</v>
-      </c>
-      <c r="B8" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="39">
-        <v>868926034002805</v>
-      </c>
-      <c r="F8" s="56"/>
-      <c r="G8" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W8" s="44"/>
-    </row>
-    <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>4</v>
-      </c>
-      <c r="B9" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="39">
-        <v>864811036961220</v>
-      </c>
-      <c r="F9" s="56"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="W9" s="44"/>
-    </row>
-    <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>5</v>
-      </c>
-      <c r="B10" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="39">
-        <v>868926033944692</v>
-      </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="W10" s="44"/>
-    </row>
-    <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>6</v>
-      </c>
-      <c r="B11" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="39">
-        <v>868345031039175</v>
-      </c>
-      <c r="F11" s="56"/>
-      <c r="G11" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="W11" s="44"/>
-    </row>
-    <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>7</v>
-      </c>
-      <c r="B12" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="39">
-        <v>868926033963692</v>
-      </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="W12" s="44"/>
-    </row>
-    <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>8</v>
-      </c>
-      <c r="B13" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="39">
-        <v>868926033941250</v>
-      </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="40"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="W13" s="44"/>
-    </row>
-    <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>9</v>
-      </c>
-      <c r="B14" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="39">
-        <v>868926033937050</v>
-      </c>
-      <c r="F14" s="56"/>
-      <c r="G14" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="W14" s="44"/>
-    </row>
-    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>10</v>
-      </c>
-      <c r="B15" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="39">
-        <v>868926033944908</v>
-      </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="W15" s="44"/>
-    </row>
-    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>11</v>
-      </c>
-      <c r="B16" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="39">
-        <v>866192037771571</v>
-      </c>
-      <c r="F16" s="56"/>
-      <c r="G16" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W16" s="44"/>
-    </row>
-    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>12</v>
-      </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="44"/>
-    </row>
-    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>13</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="14"/>
-    </row>
-    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>14</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="V19" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="W19" s="50"/>
-    </row>
-    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>15</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="V20" s="10">
-        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
-      </c>
-      <c r="W20" s="14"/>
-    </row>
-    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>16</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="V21" s="10">
-        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
-      </c>
-      <c r="W21" s="14"/>
-    </row>
-    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>17</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="V22" s="10">
-        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
-      </c>
-      <c r="W22" s="14"/>
-    </row>
-    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>18</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="14"/>
-    </row>
-    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>19</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="14"/>
-    </row>
-    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>20</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="V25" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="W25" s="50"/>
-    </row>
-    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>21</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V26" s="10">
-        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
-      </c>
-      <c r="W26" s="14"/>
-    </row>
-    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>22</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="V27" s="10">
-        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
-      </c>
-      <c r="W27" s="14"/>
-    </row>
-    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>23</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="V28" s="10">
-        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
-      </c>
-      <c r="W28" s="14"/>
-    </row>
-    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>24</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="V29" s="10">
-        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
-      </c>
-      <c r="W29" s="14"/>
-    </row>
-    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>25</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="V30" s="10">
-        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
-        <v>0</v>
-      </c>
-      <c r="W30" s="14"/>
-    </row>
-    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>26</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="V31" s="10">
-        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
-      </c>
-      <c r="W31" s="14"/>
-    </row>
-    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>27</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="V32" s="10">
-        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
-      </c>
-      <c r="W32" s="14"/>
-    </row>
-    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>28</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="V33" s="10">
-        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
-      </c>
-      <c r="W33" s="14"/>
-    </row>
-    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>29</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="V34" s="10">
-        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
-      </c>
-      <c r="W34" s="14"/>
-    </row>
-    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>30</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="V35" s="10">
-        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
-      </c>
-      <c r="W35" s="14"/>
-    </row>
-    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>31</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="V36" s="10">
-        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
-      </c>
-      <c r="W36" s="14"/>
-    </row>
-    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>32</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="V37" s="10">
-        <f>SUM(V26:V36)</f>
-        <v>0</v>
       </c>
       <c r="W37" s="14"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_DLVanLoi.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_DLVanLoi.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="154">
   <si>
     <t>STT</t>
   </si>
@@ -493,6 +493,15 @@
   </si>
   <si>
     <t>ID mới: 202104101350908</t>
+  </si>
+  <si>
+    <t>ID mới: 202104101539050</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW, nâng cấp khay sim, làm mới thiết bị</t>
   </si>
 </sst>
 </file>
@@ -859,22 +868,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -896,6 +890,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1237,43 +1246,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="61"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -1318,58 +1327,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="57"/>
+      <c r="M4" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="60" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="62" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="57" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="55" t="s">
         <v>1</v>
       </c>
@@ -1394,23 +1403,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="57"/>
       <c r="K5" s="55" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="62"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1460,7 +1469,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="57" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1515,7 +1524,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="58"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1568,7 +1577,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="58"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1619,7 +1628,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="58"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1672,7 +1681,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="58"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1725,7 +1734,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="58"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1778,7 +1787,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="57" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1833,7 +1842,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="58"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1882,7 +1891,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="58"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1933,7 +1942,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="58"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1982,7 +1991,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="59"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4015,6 +4024,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4026,13 +4042,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4076,43 +4085,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="61"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -4157,58 +4166,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="57"/>
+      <c r="M4" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="60" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="62" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="57" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="55" t="s">
         <v>1</v>
       </c>
@@ -4233,23 +4242,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="57"/>
       <c r="K5" s="55" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="62"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4285,7 +4294,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="57" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4336,7 +4345,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="58"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4365,7 +4374,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="58"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4394,7 +4403,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="58"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -4423,7 +4432,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="58"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4452,7 +4461,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="58"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4481,7 +4490,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="57" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -4512,7 +4521,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="58"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4541,7 +4550,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="58"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4570,7 +4579,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="58"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4599,7 +4608,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="59"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5830,6 +5839,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5841,13 +5857,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5891,43 +5900,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="61"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -5972,58 +5981,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="57"/>
+      <c r="M4" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="60" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="62" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="57" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="55" t="s">
         <v>1</v>
       </c>
@@ -6048,23 +6057,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="57"/>
       <c r="K5" s="55" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="62"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6106,7 +6115,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="57" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6137,7 +6146,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="58"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6166,7 +6175,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="58"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6195,7 +6204,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="58"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6224,7 +6233,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="58"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -6253,7 +6262,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="58"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -6282,7 +6291,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="57" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -6313,7 +6322,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="58"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -6342,7 +6351,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="58"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -6371,7 +6380,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="58"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -6400,7 +6409,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="59"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7631,6 +7640,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7642,13 +7658,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7659,8 +7668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7692,43 +7701,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="61"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -7773,58 +7782,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="57"/>
+      <c r="M4" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="60" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="62" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="57" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -7849,23 +7858,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="57"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="62"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7915,7 +7924,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="57" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7952,7 +7961,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="58"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8007,7 +8016,7 @@
         <v>145</v>
       </c>
       <c r="T8" s="44"/>
-      <c r="U8" s="58"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8042,7 +8051,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="58"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -8079,7 +8088,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="58"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8116,7 +8125,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="58"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8153,7 +8162,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="57" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -8208,7 +8217,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="58"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8232,20 +8241,40 @@
       <c r="G14" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
+      <c r="H14" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>153</v>
+      </c>
       <c r="N14" s="1"/>
       <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="4"/>
+      <c r="P14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="T14" s="44"/>
-      <c r="U14" s="58"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8298,7 +8327,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="58"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8335,7 +8364,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="59"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8518,7 +8547,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -8795,7 +8824,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -8923,7 +8952,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -8987,7 +9016,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -9566,13 +9595,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9584,6 +9606,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9627,43 +9656,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="61"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -9708,58 +9737,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="57"/>
+      <c r="M4" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="60" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="62" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="57" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -9784,23 +9813,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="57"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="62"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9826,7 +9855,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="57" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -9857,7 +9886,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="58"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -9886,7 +9915,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="58"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9915,7 +9944,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="58"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -9944,7 +9973,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="58"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9973,7 +10002,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="58"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -10002,7 +10031,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="57" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -10033,7 +10062,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="58"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -10062,7 +10091,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="58"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -10091,7 +10120,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="58"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -10120,7 +10149,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="59"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -11351,13 +11380,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -11369,6 +11391,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_DLVanLoi.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_DLVanLoi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="28" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="163">
   <si>
     <t>STT</t>
   </si>
@@ -246,9 +246,6 @@
     <t>TG007X</t>
   </si>
   <si>
-    <t>TechGlobal</t>
-  </si>
-  <si>
     <t>TOP-1</t>
   </si>
   <si>
@@ -471,9 +468,6 @@
     <t>125.212.203.114,16969</t>
   </si>
   <si>
-    <t>Thiết bị không nhậ sim</t>
-  </si>
-  <si>
     <t>Thay mosfet, nâng cấp khay sim, làm mới thiết bị</t>
   </si>
   <si>
@@ -502,6 +496,39 @@
   </si>
   <si>
     <t>Nâng cấp FW, nâng cấp khay sim, làm mới thiết bị</t>
+  </si>
+  <si>
+    <t>ID mới: 202104120833175</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, nâng cấp FW, làm mới thiết bị</t>
+  </si>
+  <si>
+    <t>ID mới: 202104120846692</t>
+  </si>
+  <si>
+    <t>ID mới: 202104120918692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.170909 </t>
+  </si>
+  <si>
+    <t>Lock: 027.000.012.023,09008</t>
+  </si>
+  <si>
+    <t>ID mới: 202104121001220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.170905 </t>
+  </si>
+  <si>
+    <t>ID mới: 202104121343571</t>
+  </si>
+  <si>
+    <t>ID mới: 202104091555989</t>
+  </si>
+  <si>
+    <t>ID mới: 202104091641112</t>
   </si>
 </sst>
 </file>
@@ -868,7 +895,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -890,21 +932,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1246,43 +1273,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="61"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -1327,58 +1354,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="57" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="57"/>
-      <c r="M4" s="63" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="63" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="57" t="s">
+      <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="57" t="s">
+      <c r="R4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="69" t="s">
+      <c r="S4" s="62" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="57" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="57" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="55" t="s">
         <v>1</v>
       </c>
@@ -1403,23 +1430,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="57"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="55" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="62"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1441,25 +1468,25 @@
         <v>66</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I6" s="51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J6" s="40"/>
       <c r="K6" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L6" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>19</v>
@@ -1469,7 +1496,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="57" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1496,25 +1523,25 @@
         <v>66</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I7" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J7" s="40"/>
       <c r="K7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L7" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>19</v>
@@ -1524,7 +1551,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="58"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1549,25 +1576,25 @@
         <v>66</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I8" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J8" s="40"/>
       <c r="K8" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L8" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>19</v>
@@ -1577,7 +1604,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="58"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1602,23 +1629,23 @@
         <v>66</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I9" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J9" s="40"/>
       <c r="K9" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L9" s="40"/>
       <c r="M9" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="40"/>
       <c r="P9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>19</v>
@@ -1628,7 +1655,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="58"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1653,25 +1680,25 @@
         <v>66</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J10" s="40"/>
       <c r="K10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L10" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>19</v>
@@ -1681,7 +1708,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="66"/>
+      <c r="U10" s="58"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1706,25 +1733,25 @@
         <v>66</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J11" s="40"/>
       <c r="K11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L11" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="4" t="s">
         <v>19</v>
@@ -1734,7 +1761,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="66"/>
+      <c r="U11" s="58"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1759,25 +1786,25 @@
         <v>66</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J12" s="40"/>
       <c r="K12" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L12" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="4" t="s">
         <v>19</v>
@@ -1787,7 +1814,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="57" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1814,25 +1841,25 @@
         <v>66</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L13" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q13" s="4" t="s">
         <v>19</v>
@@ -1842,7 +1869,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="66"/>
+      <c r="U13" s="58"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1865,23 +1892,23 @@
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J14" s="40"/>
       <c r="K14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L14" s="40"/>
       <c r="M14" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="40"/>
       <c r="P14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="4" t="s">
         <v>19</v>
@@ -1891,7 +1918,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="66"/>
+      <c r="U14" s="58"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1916,23 +1943,23 @@
         <v>66</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J15" s="40"/>
       <c r="K15" s="1"/>
       <c r="L15" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M15" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="40"/>
       <c r="P15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q15" s="4" t="s">
         <v>19</v>
@@ -1942,7 +1969,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="58"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1965,23 +1992,23 @@
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
       <c r="H16" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I16" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L16" s="40"/>
       <c r="M16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="4" t="s">
         <v>19</v>
@@ -1991,7 +2018,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="59"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2016,23 +2043,23 @@
         <v>62</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I17" s="40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J17" s="40"/>
       <c r="K17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="40"/>
       <c r="P17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="4" t="s">
         <v>19</v>
@@ -2065,25 +2092,25 @@
         <v>66</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L18" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q18" s="4" t="s">
         <v>19</v>
@@ -2114,25 +2141,25 @@
         <v>66</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L19" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q19" s="4" t="s">
         <v>19</v>
@@ -2167,25 +2194,25 @@
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L20" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q20" s="4" t="s">
         <v>19</v>
@@ -2223,23 +2250,23 @@
         <v>66</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="40"/>
       <c r="P21" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q21" s="4" t="s">
         <v>19</v>
@@ -2277,25 +2304,25 @@
         <v>66</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L22" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q22" s="4" t="s">
         <v>19</v>
@@ -2331,25 +2358,25 @@
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L23" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q23" s="4" t="s">
         <v>19</v>
@@ -2382,25 +2409,25 @@
         <v>66</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L24" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q24" s="4" t="s">
         <v>19</v>
@@ -2433,25 +2460,25 @@
         <v>66</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L25" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M25" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="N25" s="10"/>
       <c r="O25" s="40"/>
       <c r="P25" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q25" s="4" t="s">
         <v>19</v>
@@ -2486,25 +2513,25 @@
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L26" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="N26" s="10"/>
       <c r="O26" s="40"/>
       <c r="P26" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q26" s="4" t="s">
         <v>19</v>
@@ -2540,23 +2567,23 @@
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L27" s="10"/>
       <c r="M27" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N27" s="10"/>
       <c r="O27" s="40"/>
       <c r="P27" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q27" s="4" t="s">
         <v>19</v>
@@ -2594,25 +2621,25 @@
         <v>66</v>
       </c>
       <c r="H28" s="38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L28" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q28" s="4" t="s">
         <v>19</v>
@@ -2650,23 +2677,23 @@
         <v>66</v>
       </c>
       <c r="H29" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L29" s="10"/>
       <c r="M29" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q29" s="4" t="s">
         <v>19</v>
@@ -2704,23 +2731,23 @@
         <v>66</v>
       </c>
       <c r="H30" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q30" s="4" t="s">
         <v>19</v>
@@ -2760,27 +2787,27 @@
         <v>66</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q31" s="4" t="s">
         <v>19</v>
@@ -2818,25 +2845,25 @@
         <v>66</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q32" s="4" t="s">
         <v>19</v>
@@ -2874,27 +2901,27 @@
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>
       <c r="H33" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M33" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q33" s="4" t="s">
         <v>19</v>
@@ -2932,23 +2959,23 @@
         <v>66</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="40"/>
       <c r="P34" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q34" s="4" t="s">
         <v>19</v>
@@ -2986,23 +3013,23 @@
         <v>66</v>
       </c>
       <c r="H35" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="40"/>
       <c r="P35" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q35" s="4" t="s">
         <v>19</v>
@@ -3040,25 +3067,25 @@
         <v>66</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M36" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q36" s="4" t="s">
         <v>19</v>
@@ -3098,25 +3125,25 @@
         <v>66</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q37" s="4" t="s">
         <v>19</v>
@@ -3154,25 +3181,25 @@
         <v>66</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q38" s="4" t="s">
         <v>19</v>
@@ -3203,25 +3230,25 @@
       <c r="F39" s="56"/>
       <c r="G39" s="38"/>
       <c r="H39" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M39" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q39" s="4" t="s">
         <v>19</v>
@@ -3254,25 +3281,25 @@
         <v>62</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M40" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q40" s="4" t="s">
         <v>19</v>
@@ -3312,25 +3339,25 @@
         <v>66</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q41" s="4" t="s">
         <v>19</v>
@@ -3366,25 +3393,25 @@
       <c r="F42" s="56"/>
       <c r="G42" s="38"/>
       <c r="H42" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q42" s="4" t="s">
         <v>19</v>
@@ -3417,27 +3444,27 @@
         <v>66</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M43" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q43" s="4" t="s">
         <v>19</v>
@@ -3470,27 +3497,27 @@
       <c r="F44" s="56"/>
       <c r="G44" s="38"/>
       <c r="H44" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M44" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q44" s="4" t="s">
         <v>19</v>
@@ -3534,37 +3561,37 @@
         <v>66</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M45" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="N45" s="53">
         <v>10000</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q45" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R45" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="R45" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="S45" s="4"/>
       <c r="T45" s="14"/>
@@ -3605,27 +3632,27 @@
         <v>66</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M46" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q46" s="4" t="s">
         <v>19</v>
@@ -3672,27 +3699,27 @@
         <v>66</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M47" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q47" s="4" t="s">
         <v>19</v>
@@ -3739,27 +3766,27 @@
         <v>66</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M48" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q48" s="4" t="s">
         <v>19</v>
@@ -3809,27 +3836,27 @@
         <v>66</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M49" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q49" s="4" t="s">
         <v>19</v>
@@ -4024,13 +4051,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4042,6 +4062,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4052,8 +4079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4085,43 +4112,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="61"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -4166,58 +4193,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="57" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="57"/>
-      <c r="M4" s="63" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="63" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="57" t="s">
+      <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="57" t="s">
+      <c r="R4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="69" t="s">
+      <c r="S4" s="62" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="57" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="57" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="55" t="s">
         <v>1</v>
       </c>
@@ -4242,23 +4269,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="57"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="55" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="62"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4280,21 +4307,33 @@
         <v>66</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>68</v>
+        <v>162</v>
       </c>
       <c r="I6" s="51"/>
       <c r="J6" s="40"/>
       <c r="K6" s="43"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="42"/>
+      <c r="L6" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="N6" s="3">
+        <v>120000</v>
+      </c>
       <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="P6" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>137</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="57" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4321,31 +4360,33 @@
         <v>66</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="I7" s="40"/>
       <c r="J7" s="40"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="40"/>
+      <c r="L7" s="40" t="s">
+        <v>76</v>
+      </c>
       <c r="M7" s="40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N7" s="3">
         <v>120000</v>
       </c>
       <c r="O7" s="40"/>
       <c r="P7" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R7" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="58"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4374,7 +4415,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="58"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4403,7 +4444,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="58"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -4432,7 +4473,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="66"/>
+      <c r="U10" s="58"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4461,7 +4502,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="66"/>
+      <c r="U11" s="58"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4490,7 +4531,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="57" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -4521,7 +4562,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="66"/>
+      <c r="U13" s="58"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4550,7 +4591,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="66"/>
+      <c r="U14" s="58"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4579,7 +4620,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="58"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4608,7 +4649,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="59"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4791,7 +4832,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -5068,7 +5109,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -5196,7 +5237,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -5260,7 +5301,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -5839,13 +5880,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5857,6 +5891,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5900,43 +5941,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="61"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -5981,58 +6022,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="57" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="57"/>
-      <c r="M4" s="63" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="63" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="57" t="s">
+      <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="57" t="s">
+      <c r="R4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="69" t="s">
+      <c r="S4" s="62" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="57" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="57" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="55" t="s">
         <v>1</v>
       </c>
@@ -6057,23 +6098,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="57"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="55" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="62"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6087,7 +6128,7 @@
         <v>44320</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="39">
         <v>868183034709415</v>
@@ -6095,18 +6136,18 @@
       <c r="F6" s="56"/>
       <c r="G6" s="38"/>
       <c r="H6" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I6" s="51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J6" s="40"/>
       <c r="K6" s="43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L6" s="40"/>
       <c r="M6" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N6" s="42"/>
       <c r="O6" s="40"/>
@@ -6115,7 +6156,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="57" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6146,7 +6187,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="58"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6175,7 +6216,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="58"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6204,7 +6245,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="58"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6233,7 +6274,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="66"/>
+      <c r="U10" s="58"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -6262,7 +6303,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="66"/>
+      <c r="U11" s="58"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -6291,7 +6332,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="57" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -6322,7 +6363,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="66"/>
+      <c r="U13" s="58"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -6351,7 +6392,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="66"/>
+      <c r="U14" s="58"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -6380,7 +6421,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="58"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -6409,7 +6450,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="59"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7640,13 +7681,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7658,6 +7692,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7668,8 +7709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7701,43 +7742,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="61"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -7782,58 +7823,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="57" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="57"/>
-      <c r="M4" s="63" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="63" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="57" t="s">
+      <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="57" t="s">
+      <c r="R4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="69" t="s">
+      <c r="S4" s="62" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="57" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="57" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -7858,23 +7899,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="57"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="62"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7896,25 +7937,25 @@
         <v>66</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I6" s="51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J6" s="40"/>
       <c r="K6" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="L6" s="41" t="s">
-        <v>140</v>
+        <v>145</v>
+      </c>
+      <c r="L6" s="43" t="s">
+        <v>139</v>
       </c>
       <c r="M6" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N6" s="42"/>
       <c r="O6" s="40"/>
       <c r="P6" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>19</v>
@@ -7924,7 +7965,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="57" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7948,20 +7989,40 @@
       </c>
       <c r="F7" s="56"/>
       <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="H7" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L7" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>153</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="4"/>
+      <c r="P7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="T7" s="44"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="58"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7986,37 +8047,37 @@
         <v>66</v>
       </c>
       <c r="H8" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="I8" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="I8" s="40" t="s">
-        <v>142</v>
-      </c>
       <c r="J8" s="40" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="K8" s="41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L8" s="40"/>
       <c r="M8" s="40" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N8" s="53"/>
       <c r="O8" s="40"/>
       <c r="P8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R8" s="38" t="s">
         <v>30</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="T8" s="44"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="58"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8038,20 +8099,38 @@
       </c>
       <c r="F9" s="56"/>
       <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="40"/>
+      <c r="H9" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>157</v>
+      </c>
       <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="K9" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="L9" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>153</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="4"/>
+      <c r="P9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="T9" s="44"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="58"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -8075,20 +8154,36 @@
       <c r="G10" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="38"/>
-      <c r="I10" s="40"/>
+      <c r="H10" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>83</v>
+      </c>
       <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="K10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>77</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="P10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="66"/>
+      <c r="U10" s="58"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8112,20 +8207,40 @@
       <c r="G11" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="38"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="H11" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>153</v>
+      </c>
       <c r="N11" s="1"/>
       <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="4"/>
+      <c r="P11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="T11" s="44"/>
-      <c r="U11" s="66"/>
+      <c r="U11" s="58"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8149,20 +8264,36 @@
       <c r="G12" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="1"/>
+      <c r="H12" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="J12" s="40"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="K12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>77</v>
+      </c>
       <c r="N12" s="1"/>
       <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
+      <c r="P12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="57" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -8189,25 +8320,25 @@
         <v>66</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L13" s="40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="40"/>
       <c r="P13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>19</v>
@@ -8217,7 +8348,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="66"/>
+      <c r="U13" s="58"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8242,39 +8373,39 @@
         <v>66</v>
       </c>
       <c r="H14" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" s="40" t="s">
         <v>151</v>
-      </c>
-      <c r="I14" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="J14" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="L14" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="M14" s="40" t="s">
-        <v>153</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="40"/>
       <c r="P14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R14" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="T14" s="44"/>
-      <c r="U14" s="66"/>
+      <c r="U14" s="58"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8299,25 +8430,25 @@
         <v>66</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J15" s="40"/>
       <c r="K15" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L15" s="40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="40"/>
       <c r="P15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>19</v>
@@ -8327,7 +8458,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="58"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8364,7 +8495,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="59"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8483,7 +8614,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -8547,7 +8678,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -8824,7 +8955,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -8952,7 +9083,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -9016,7 +9147,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -9595,6 +9726,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9606,13 +9744,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9656,43 +9787,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="61"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -9737,58 +9868,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="57" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="57"/>
-      <c r="M4" s="63" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="63" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="57" t="s">
+      <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="57" t="s">
+      <c r="R4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="69" t="s">
+      <c r="S4" s="62" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="57" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="57" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -9813,23 +9944,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="57"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="62"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9855,7 +9986,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="57" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -9886,7 +10017,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="58"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -9915,7 +10046,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="58"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9944,7 +10075,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="58"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -9973,7 +10104,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="66"/>
+      <c r="U10" s="58"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -10002,7 +10133,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="66"/>
+      <c r="U11" s="58"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -10031,7 +10162,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="57" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -10062,7 +10193,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="66"/>
+      <c r="U13" s="58"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -10091,7 +10222,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="66"/>
+      <c r="U14" s="58"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -10120,7 +10251,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="58"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -10149,7 +10280,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="59"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -11380,6 +11511,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -11391,13 +11529,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_DLVanLoi.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_DLVanLoi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="28" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="163">
   <si>
     <t>STT</t>
   </si>
@@ -895,22 +895,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -932,6 +917,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1240,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView showZeros="0" topLeftCell="G22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1273,43 +1273,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="61"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -1354,58 +1354,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="57"/>
+      <c r="M4" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="60" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="62" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="57" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="55" t="s">
         <v>1</v>
       </c>
@@ -1430,23 +1430,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="57"/>
       <c r="K5" s="55" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="62"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="57" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="58"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1604,7 +1604,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="58"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="58"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1708,7 +1708,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="58"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="58"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="57" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="58"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="58"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="58"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="59"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4051,6 +4051,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4062,13 +4069,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4079,8 +4079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView showZeros="0" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4112,43 +4112,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="61"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -4193,58 +4193,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="57"/>
+      <c r="M4" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="60" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="62" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="57" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="55" t="s">
         <v>1</v>
       </c>
@@ -4269,23 +4269,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="57"/>
       <c r="K5" s="55" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="62"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4333,7 +4333,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="57" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4386,7 +4386,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="58"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4415,7 +4415,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="58"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4444,7 +4444,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="58"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -4473,7 +4473,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="58"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4502,7 +4502,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="58"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4531,7 +4531,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="57" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -4562,7 +4562,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="58"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4591,7 +4591,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="58"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4620,7 +4620,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="58"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4649,7 +4649,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="59"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5880,6 +5880,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5891,13 +5898,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5908,8 +5908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5941,43 +5941,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="61"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -6022,58 +6022,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="57"/>
+      <c r="M4" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="60" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="62" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="57" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="55" t="s">
         <v>1</v>
       </c>
@@ -6098,23 +6098,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="57"/>
       <c r="K5" s="55" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="62"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6150,13 +6150,21 @@
         <v>70</v>
       </c>
       <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="57" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6187,7 +6195,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="58"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6216,7 +6224,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="58"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6245,7 +6253,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="58"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6274,7 +6282,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="58"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -6303,7 +6311,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="58"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -6332,7 +6340,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="57" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -6363,7 +6371,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="58"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -6392,7 +6400,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="58"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -6421,7 +6429,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="58"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -6450,7 +6458,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="59"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6569,7 +6577,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -7038,7 +7046,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -7102,7 +7110,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -7681,6 +7689,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7692,13 +7707,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7709,8 +7717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView showZeros="0" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7742,43 +7750,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="61"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -7823,58 +7831,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="57"/>
+      <c r="M4" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="60" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="62" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="57" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -7899,23 +7907,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="57"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="62"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7965,7 +7973,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="57" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -8022,7 +8030,7 @@
         <v>143</v>
       </c>
       <c r="T7" s="44"/>
-      <c r="U7" s="58"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8077,7 +8085,7 @@
         <v>143</v>
       </c>
       <c r="T8" s="44"/>
-      <c r="U8" s="58"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8130,7 +8138,7 @@
         <v>143</v>
       </c>
       <c r="T9" s="44"/>
-      <c r="U9" s="58"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -8183,7 +8191,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="58"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8240,7 +8248,7 @@
         <v>143</v>
       </c>
       <c r="T11" s="44"/>
-      <c r="U11" s="58"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8293,7 +8301,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="57" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -8348,7 +8356,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="58"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8405,7 +8413,7 @@
         <v>143</v>
       </c>
       <c r="T14" s="44"/>
-      <c r="U14" s="58"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8458,7 +8466,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="58"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8486,16 +8494,26 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
+      <c r="L16" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="N16" s="1"/>
       <c r="O16" s="40"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="38"/>
+      <c r="P16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="59"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8614,7 +8632,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -9083,7 +9101,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -9147,7 +9165,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -9726,13 +9744,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9744,6 +9755,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9754,8 +9772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9787,43 +9805,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="61"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -9868,58 +9886,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="57"/>
+      <c r="M4" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="60" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="62" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="57" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -9944,23 +9962,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="57"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="62"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9986,7 +10004,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="57" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -10017,7 +10035,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="58"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10046,7 +10064,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="58"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -10075,7 +10093,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="58"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -10104,7 +10122,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="58"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -10133,7 +10151,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="58"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -10162,7 +10180,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="57" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -10193,7 +10211,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="58"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -10222,7 +10240,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="58"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -10251,7 +10269,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="58"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -10280,7 +10298,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="59"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -11511,13 +11529,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -11529,6 +11540,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_DLVanLoi.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_DLVanLoi.xlsx
@@ -9,33 +9,33 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="28" r:id="rId1"/>
     <sheet name="TG007X" sheetId="29" r:id="rId2"/>
-    <sheet name="TOP-1" sheetId="27" r:id="rId3"/>
-    <sheet name="TG102V" sheetId="24" r:id="rId4"/>
+    <sheet name="TG102V" sheetId="24" r:id="rId3"/>
+    <sheet name="TOP-1" sheetId="27" r:id="rId4"/>
     <sheet name="TongThang" sheetId="25" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG007X!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TOP-1'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'TOP-1'!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="1">TG007X!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="3">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="4">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="2">'TOP-1'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">'TOP-1'!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="164">
   <si>
     <t>STT</t>
   </si>
@@ -529,6 +529,9 @@
   </si>
   <si>
     <t>ID mới: 202104091641112</t>
+  </si>
+  <si>
+    <t>ID mới:202104121343571</t>
   </si>
 </sst>
 </file>
@@ -895,7 +898,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -917,21 +935,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1240,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="G22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S49"/>
+    <sheetView showZeros="0" topLeftCell="K37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1273,43 +1276,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="61"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -1354,58 +1357,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="57" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="57"/>
-      <c r="M4" s="63" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="63" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="57" t="s">
+      <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="57" t="s">
+      <c r="R4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="69" t="s">
+      <c r="S4" s="62" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="57" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="57" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="55" t="s">
         <v>1</v>
       </c>
@@ -1430,23 +1433,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="57"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="55" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="62"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1454,9 +1457,11 @@
         <v>1</v>
       </c>
       <c r="B6" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C6" s="37"/>
+        <v>44287</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44308</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>44</v>
       </c>
@@ -1484,7 +1489,9 @@
         <v>77</v>
       </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="P6" s="1" t="s">
         <v>78</v>
       </c>
@@ -1496,7 +1503,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="57" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1509,9 +1516,11 @@
         <v>2</v>
       </c>
       <c r="B7" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C7" s="37"/>
+        <v>44287</v>
+      </c>
+      <c r="C7" s="37">
+        <v>44308</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>44</v>
       </c>
@@ -1539,7 +1548,9 @@
         <v>77</v>
       </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="O7" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="P7" s="1" t="s">
         <v>78</v>
       </c>
@@ -1551,7 +1562,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="58"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1562,9 +1573,11 @@
         <v>3</v>
       </c>
       <c r="B8" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C8" s="37"/>
+        <v>44287</v>
+      </c>
+      <c r="C8" s="37">
+        <v>44308</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>44</v>
       </c>
@@ -1592,7 +1605,9 @@
         <v>77</v>
       </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="O8" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="P8" s="1" t="s">
         <v>78</v>
       </c>
@@ -1604,7 +1619,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="58"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1615,9 +1630,11 @@
         <v>4</v>
       </c>
       <c r="B9" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C9" s="37"/>
+        <v>44287</v>
+      </c>
+      <c r="C9" s="37">
+        <v>44308</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>44</v>
       </c>
@@ -1643,7 +1660,9 @@
         <v>86</v>
       </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
+      <c r="O9" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="P9" s="1" t="s">
         <v>78</v>
       </c>
@@ -1655,7 +1674,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="58"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1666,9 +1685,11 @@
         <v>5</v>
       </c>
       <c r="B10" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C10" s="37"/>
+        <v>44287</v>
+      </c>
+      <c r="C10" s="37">
+        <v>44308</v>
+      </c>
       <c r="D10" s="38" t="s">
         <v>44</v>
       </c>
@@ -1696,7 +1717,9 @@
         <v>77</v>
       </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="O10" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="P10" s="1" t="s">
         <v>78</v>
       </c>
@@ -1708,7 +1731,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="66"/>
+      <c r="U10" s="58"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1719,9 +1742,11 @@
         <v>6</v>
       </c>
       <c r="B11" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C11" s="37"/>
+        <v>44287</v>
+      </c>
+      <c r="C11" s="37">
+        <v>44308</v>
+      </c>
       <c r="D11" s="38" t="s">
         <v>44</v>
       </c>
@@ -1749,7 +1774,9 @@
         <v>77</v>
       </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="O11" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="P11" s="1" t="s">
         <v>78</v>
       </c>
@@ -1761,7 +1788,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="66"/>
+      <c r="U11" s="58"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1772,9 +1799,11 @@
         <v>7</v>
       </c>
       <c r="B12" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C12" s="37"/>
+        <v>44287</v>
+      </c>
+      <c r="C12" s="37">
+        <v>44308</v>
+      </c>
       <c r="D12" s="38" t="s">
         <v>44</v>
       </c>
@@ -1802,7 +1831,9 @@
         <v>77</v>
       </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="O12" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="P12" s="1" t="s">
         <v>78</v>
       </c>
@@ -1814,7 +1845,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="57" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1827,9 +1858,11 @@
         <v>8</v>
       </c>
       <c r="B13" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C13" s="37"/>
+        <v>44287</v>
+      </c>
+      <c r="C13" s="37">
+        <v>44308</v>
+      </c>
       <c r="D13" s="38" t="s">
         <v>44</v>
       </c>
@@ -1857,7 +1890,9 @@
         <v>77</v>
       </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="O13" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="P13" s="1" t="s">
         <v>78</v>
       </c>
@@ -1869,7 +1904,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="66"/>
+      <c r="U13" s="58"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1880,9 +1915,11 @@
         <v>9</v>
       </c>
       <c r="B14" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C14" s="37"/>
+        <v>44287</v>
+      </c>
+      <c r="C14" s="37">
+        <v>44308</v>
+      </c>
       <c r="D14" s="38" t="s">
         <v>44</v>
       </c>
@@ -1906,7 +1943,9 @@
         <v>86</v>
       </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
+      <c r="O14" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="P14" s="1" t="s">
         <v>78</v>
       </c>
@@ -1918,7 +1957,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="66"/>
+      <c r="U14" s="58"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1929,9 +1968,11 @@
         <v>10</v>
       </c>
       <c r="B15" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C15" s="37"/>
+        <v>44287</v>
+      </c>
+      <c r="C15" s="37">
+        <v>44308</v>
+      </c>
       <c r="D15" s="38" t="s">
         <v>44</v>
       </c>
@@ -1957,7 +1998,9 @@
         <v>86</v>
       </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
+      <c r="O15" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="P15" s="1" t="s">
         <v>78</v>
       </c>
@@ -1969,7 +2012,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="58"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1980,9 +2023,11 @@
         <v>11</v>
       </c>
       <c r="B16" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C16" s="37"/>
+        <v>44287</v>
+      </c>
+      <c r="C16" s="37">
+        <v>44308</v>
+      </c>
       <c r="D16" s="38" t="s">
         <v>44</v>
       </c>
@@ -2006,7 +2051,9 @@
         <v>77</v>
       </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="O16" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="P16" s="1" t="s">
         <v>78</v>
       </c>
@@ -2018,7 +2065,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="59"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2029,9 +2076,11 @@
         <v>12</v>
       </c>
       <c r="B17" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C17" s="37"/>
+        <v>44287</v>
+      </c>
+      <c r="C17" s="37">
+        <v>44308</v>
+      </c>
       <c r="D17" s="38" t="s">
         <v>44</v>
       </c>
@@ -2057,7 +2106,9 @@
         <v>86</v>
       </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="40"/>
+      <c r="O17" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="P17" s="1" t="s">
         <v>78</v>
       </c>
@@ -2078,9 +2129,11 @@
         <v>13</v>
       </c>
       <c r="B18" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C18" s="9"/>
+        <v>44287</v>
+      </c>
+      <c r="C18" s="37">
+        <v>44308</v>
+      </c>
       <c r="D18" s="38" t="s">
         <v>44</v>
       </c>
@@ -2108,7 +2161,9 @@
         <v>77</v>
       </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+      <c r="O18" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="P18" s="1" t="s">
         <v>78</v>
       </c>
@@ -2127,9 +2182,11 @@
         <v>14</v>
       </c>
       <c r="B19" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C19" s="9"/>
+        <v>44287</v>
+      </c>
+      <c r="C19" s="37">
+        <v>44308</v>
+      </c>
       <c r="D19" s="38" t="s">
         <v>44</v>
       </c>
@@ -2157,7 +2214,9 @@
         <v>77</v>
       </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+      <c r="O19" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="P19" s="1" t="s">
         <v>78</v>
       </c>
@@ -2182,9 +2241,11 @@
         <v>15</v>
       </c>
       <c r="B20" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C20" s="9"/>
+        <v>44287</v>
+      </c>
+      <c r="C20" s="37">
+        <v>44308</v>
+      </c>
       <c r="D20" s="38" t="s">
         <v>44</v>
       </c>
@@ -2210,7 +2271,9 @@
         <v>77</v>
       </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+      <c r="O20" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="P20" s="1" t="s">
         <v>78</v>
       </c>
@@ -2236,9 +2299,11 @@
         <v>16</v>
       </c>
       <c r="B21" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C21" s="9"/>
+        <v>44287</v>
+      </c>
+      <c r="C21" s="37">
+        <v>44308</v>
+      </c>
       <c r="D21" s="38" t="s">
         <v>44</v>
       </c>
@@ -2264,7 +2329,9 @@
         <v>86</v>
       </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="40"/>
+      <c r="O21" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="P21" s="1" t="s">
         <v>78</v>
       </c>
@@ -2290,9 +2357,11 @@
         <v>17</v>
       </c>
       <c r="B22" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C22" s="9"/>
+        <v>44287</v>
+      </c>
+      <c r="C22" s="37">
+        <v>44308</v>
+      </c>
       <c r="D22" s="38" t="s">
         <v>44</v>
       </c>
@@ -2320,7 +2389,9 @@
         <v>77</v>
       </c>
       <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
+      <c r="O22" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="P22" s="1" t="s">
         <v>78</v>
       </c>
@@ -2346,9 +2417,11 @@
         <v>18</v>
       </c>
       <c r="B23" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C23" s="9"/>
+        <v>44287</v>
+      </c>
+      <c r="C23" s="37">
+        <v>44308</v>
+      </c>
       <c r="D23" s="38" t="s">
         <v>44</v>
       </c>
@@ -2374,7 +2447,9 @@
         <v>77</v>
       </c>
       <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
+      <c r="O23" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="P23" s="1" t="s">
         <v>78</v>
       </c>
@@ -2395,9 +2470,11 @@
         <v>19</v>
       </c>
       <c r="B24" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C24" s="9"/>
+        <v>44287</v>
+      </c>
+      <c r="C24" s="37">
+        <v>44308</v>
+      </c>
       <c r="D24" s="38" t="s">
         <v>44</v>
       </c>
@@ -2425,7 +2502,9 @@
         <v>77</v>
       </c>
       <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+      <c r="O24" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="P24" s="1" t="s">
         <v>78</v>
       </c>
@@ -2446,9 +2525,11 @@
         <v>20</v>
       </c>
       <c r="B25" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C25" s="9"/>
+        <v>44287</v>
+      </c>
+      <c r="C25" s="37">
+        <v>44308</v>
+      </c>
       <c r="D25" s="38" t="s">
         <v>44</v>
       </c>
@@ -2476,7 +2557,9 @@
         <v>77</v>
       </c>
       <c r="N25" s="10"/>
-      <c r="O25" s="40"/>
+      <c r="O25" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="P25" s="1" t="s">
         <v>78</v>
       </c>
@@ -2501,9 +2584,11 @@
         <v>21</v>
       </c>
       <c r="B26" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C26" s="9"/>
+        <v>44287</v>
+      </c>
+      <c r="C26" s="37">
+        <v>44308</v>
+      </c>
       <c r="D26" s="38" t="s">
         <v>44</v>
       </c>
@@ -2529,7 +2614,9 @@
         <v>77</v>
       </c>
       <c r="N26" s="10"/>
-      <c r="O26" s="40"/>
+      <c r="O26" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="P26" s="1" t="s">
         <v>78</v>
       </c>
@@ -2555,9 +2642,11 @@
         <v>22</v>
       </c>
       <c r="B27" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C27" s="9"/>
+        <v>44287</v>
+      </c>
+      <c r="C27" s="37">
+        <v>44308</v>
+      </c>
       <c r="D27" s="38" t="s">
         <v>44</v>
       </c>
@@ -2581,7 +2670,9 @@
         <v>77</v>
       </c>
       <c r="N27" s="10"/>
-      <c r="O27" s="40"/>
+      <c r="O27" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="P27" s="1" t="s">
         <v>78</v>
       </c>
@@ -2607,9 +2698,11 @@
         <v>23</v>
       </c>
       <c r="B28" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C28" s="9"/>
+        <v>44287</v>
+      </c>
+      <c r="C28" s="37">
+        <v>44308</v>
+      </c>
       <c r="D28" s="38" t="s">
         <v>44</v>
       </c>
@@ -2637,7 +2730,9 @@
         <v>77</v>
       </c>
       <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
+      <c r="O28" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="P28" s="1" t="s">
         <v>78</v>
       </c>
@@ -2663,9 +2758,11 @@
         <v>24</v>
       </c>
       <c r="B29" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C29" s="9"/>
+        <v>44287</v>
+      </c>
+      <c r="C29" s="37">
+        <v>44308</v>
+      </c>
       <c r="D29" s="38" t="s">
         <v>44</v>
       </c>
@@ -2691,7 +2788,9 @@
         <v>86</v>
       </c>
       <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
+      <c r="O29" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="P29" s="1" t="s">
         <v>78</v>
       </c>
@@ -2717,9 +2816,11 @@
         <v>25</v>
       </c>
       <c r="B30" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C30" s="9"/>
+        <v>44287</v>
+      </c>
+      <c r="C30" s="37">
+        <v>44308</v>
+      </c>
       <c r="D30" s="38" t="s">
         <v>44</v>
       </c>
@@ -2745,7 +2846,9 @@
         <v>86</v>
       </c>
       <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
+      <c r="O30" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="P30" s="1" t="s">
         <v>78</v>
       </c>
@@ -2771,7 +2874,7 @@
         <v>26</v>
       </c>
       <c r="B31" s="37">
-        <v>44200</v>
+        <v>44287</v>
       </c>
       <c r="C31" s="9">
         <v>44320</v>
@@ -2831,9 +2934,11 @@
         <v>27</v>
       </c>
       <c r="B32" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C32" s="9"/>
+        <v>44287</v>
+      </c>
+      <c r="C32" s="37">
+        <v>44308</v>
+      </c>
       <c r="D32" s="38" t="s">
         <v>44</v>
       </c>
@@ -2861,7 +2966,9 @@
         <v>77</v>
       </c>
       <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
+      <c r="O32" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="P32" s="1" t="s">
         <v>78</v>
       </c>
@@ -2887,7 +2994,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="37">
-        <v>44200</v>
+        <v>44287</v>
       </c>
       <c r="C33" s="9">
         <v>44320</v>
@@ -2945,9 +3052,11 @@
         <v>29</v>
       </c>
       <c r="B34" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C34" s="9"/>
+        <v>44287</v>
+      </c>
+      <c r="C34" s="37">
+        <v>44308</v>
+      </c>
       <c r="D34" s="38" t="s">
         <v>44</v>
       </c>
@@ -2973,7 +3082,9 @@
         <v>86</v>
       </c>
       <c r="N34" s="1"/>
-      <c r="O34" s="40"/>
+      <c r="O34" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="P34" s="1" t="s">
         <v>78</v>
       </c>
@@ -2999,9 +3110,11 @@
         <v>30</v>
       </c>
       <c r="B35" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C35" s="9"/>
+        <v>44287</v>
+      </c>
+      <c r="C35" s="37">
+        <v>44308</v>
+      </c>
       <c r="D35" s="38" t="s">
         <v>44</v>
       </c>
@@ -3027,7 +3140,9 @@
         <v>86</v>
       </c>
       <c r="N35" s="1"/>
-      <c r="O35" s="40"/>
+      <c r="O35" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="P35" s="1" t="s">
         <v>78</v>
       </c>
@@ -3053,9 +3168,11 @@
         <v>31</v>
       </c>
       <c r="B36" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C36" s="9"/>
+        <v>44287</v>
+      </c>
+      <c r="C36" s="37">
+        <v>44308</v>
+      </c>
       <c r="D36" s="38" t="s">
         <v>44</v>
       </c>
@@ -3083,7 +3200,9 @@
         <v>77</v>
       </c>
       <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
+      <c r="O36" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="P36" s="1" t="s">
         <v>78</v>
       </c>
@@ -3109,7 +3228,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="37">
-        <v>44200</v>
+        <v>44287</v>
       </c>
       <c r="C37" s="9">
         <v>44320</v>
@@ -3167,9 +3286,11 @@
         <v>33</v>
       </c>
       <c r="B38" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C38" s="9"/>
+        <v>44287</v>
+      </c>
+      <c r="C38" s="37">
+        <v>44308</v>
+      </c>
       <c r="D38" s="38" t="s">
         <v>44</v>
       </c>
@@ -3218,9 +3339,11 @@
         <v>34</v>
       </c>
       <c r="B39" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C39" s="9"/>
+        <v>44287</v>
+      </c>
+      <c r="C39" s="37">
+        <v>44308</v>
+      </c>
       <c r="D39" s="38" t="s">
         <v>44</v>
       </c>
@@ -3246,7 +3369,9 @@
         <v>77</v>
       </c>
       <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
+      <c r="O39" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="P39" s="1" t="s">
         <v>78</v>
       </c>
@@ -3267,9 +3392,11 @@
         <v>35</v>
       </c>
       <c r="B40" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C40" s="9"/>
+        <v>44287</v>
+      </c>
+      <c r="C40" s="37">
+        <v>44308</v>
+      </c>
       <c r="D40" s="38" t="s">
         <v>44</v>
       </c>
@@ -3297,7 +3424,9 @@
         <v>77</v>
       </c>
       <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
+      <c r="O40" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="P40" s="1" t="s">
         <v>78</v>
       </c>
@@ -3323,7 +3452,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="37">
-        <v>44200</v>
+        <v>44287</v>
       </c>
       <c r="C41" s="9">
         <v>44320</v>
@@ -3381,9 +3510,11 @@
         <v>37</v>
       </c>
       <c r="B42" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C42" s="9"/>
+        <v>44287</v>
+      </c>
+      <c r="C42" s="37">
+        <v>44308</v>
+      </c>
       <c r="D42" s="38" t="s">
         <v>44</v>
       </c>
@@ -3428,7 +3559,7 @@
         <v>38</v>
       </c>
       <c r="B43" s="37">
-        <v>44200</v>
+        <v>44287</v>
       </c>
       <c r="C43" s="9">
         <v>44320</v>
@@ -3483,7 +3614,7 @@
         <v>39</v>
       </c>
       <c r="B44" s="37">
-        <v>44200</v>
+        <v>44287</v>
       </c>
       <c r="C44" s="9">
         <v>44320</v>
@@ -3545,7 +3676,7 @@
         <v>40</v>
       </c>
       <c r="B45" s="37">
-        <v>44200</v>
+        <v>44287</v>
       </c>
       <c r="C45" s="9">
         <v>44320</v>
@@ -3616,7 +3747,7 @@
         <v>41</v>
       </c>
       <c r="B46" s="37">
-        <v>44200</v>
+        <v>44287</v>
       </c>
       <c r="C46" s="9">
         <v>44320</v>
@@ -3683,7 +3814,7 @@
         <v>42</v>
       </c>
       <c r="B47" s="37">
-        <v>44200</v>
+        <v>44287</v>
       </c>
       <c r="C47" s="9">
         <v>44320</v>
@@ -3750,7 +3881,7 @@
         <v>43</v>
       </c>
       <c r="B48" s="37">
-        <v>44200</v>
+        <v>44287</v>
       </c>
       <c r="C48" s="9">
         <v>44320</v>
@@ -3820,7 +3951,7 @@
         <v>44</v>
       </c>
       <c r="B49" s="37">
-        <v>44200</v>
+        <v>44287</v>
       </c>
       <c r="C49" s="9">
         <v>44320</v>
@@ -4051,13 +4182,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4069,6 +4193,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4079,8 +4210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S7"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4112,43 +4243,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="61"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -4193,58 +4324,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="57" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="57"/>
-      <c r="M4" s="63" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="63" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="57" t="s">
+      <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="57" t="s">
+      <c r="R4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="69" t="s">
+      <c r="S4" s="62" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="57" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="57" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="55" t="s">
         <v>1</v>
       </c>
@@ -4269,23 +4400,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="57"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="55" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="62"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4293,7 +4424,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="37">
-        <v>44200</v>
+        <v>44287</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="38" t="s">
@@ -4333,7 +4464,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="57" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4346,7 +4477,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="37">
-        <v>44200</v>
+        <v>44287</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="38" t="s">
@@ -4386,7 +4517,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="58"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4415,7 +4546,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="58"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4444,7 +4575,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="58"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -4473,7 +4604,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="66"/>
+      <c r="U10" s="58"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4502,7 +4633,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="66"/>
+      <c r="U11" s="58"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4531,7 +4662,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="57" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -4562,7 +4693,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="66"/>
+      <c r="U13" s="58"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4591,7 +4722,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="66"/>
+      <c r="U14" s="58"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4620,7 +4751,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="58"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4649,7 +4780,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="59"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5880,13 +6011,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5898,6 +6022,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5908,8 +6039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S6"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5941,43 +6072,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="61"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -6022,99 +6153,99 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="57" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="57"/>
-      <c r="M4" s="63" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="63" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="57" t="s">
+      <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="57" t="s">
+      <c r="R4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="69" t="s">
+      <c r="S4" s="62" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="57" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="57" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
-      <c r="B5" s="55" t="s">
+      <c r="A5" s="67"/>
+      <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="57"/>
-      <c r="K5" s="55" t="s">
+      <c r="J5" s="61"/>
+      <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="55" t="s">
+      <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="62"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6122,32 +6253,36 @@
         <v>1</v>
       </c>
       <c r="B6" s="37">
-        <v>44200</v>
+        <v>44287</v>
       </c>
       <c r="C6" s="37">
-        <v>44320</v>
+        <v>44308</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E6" s="39">
-        <v>868183034709415</v>
+        <v>868926033962009</v>
       </c>
       <c r="F6" s="56"/>
-      <c r="G6" s="38"/>
+      <c r="G6" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="H6" s="38" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="I6" s="51" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="J6" s="40"/>
       <c r="K6" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="L6" s="40"/>
+        <v>145</v>
+      </c>
+      <c r="L6" s="43" t="s">
+        <v>139</v>
+      </c>
       <c r="M6" s="40" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="N6" s="42"/>
       <c r="O6" s="40" t="s">
@@ -6163,306 +6298,594 @@
         <v>24</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="65" t="s">
+      <c r="T6" s="44"/>
+      <c r="U6" s="57" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="54"/>
+      <c r="W6" s="44"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="38"/>
+      <c r="B7" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C7" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="39">
+        <v>864811036931439</v>
+      </c>
+      <c r="F7" s="56"/>
       <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="H7" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L7" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>153</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="66"/>
+      <c r="O7" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="T7" s="44"/>
+      <c r="U7" s="58"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="54"/>
+      <c r="W7" s="44"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
+      <c r="B8" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C8" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="39">
+        <v>868926034002805</v>
+      </c>
+      <c r="F8" s="56"/>
+      <c r="G8" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>139</v>
+      </c>
       <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="M8" s="40" t="s">
+        <v>142</v>
+      </c>
       <c r="N8" s="53"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="66"/>
+      <c r="O8" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="T8" s="44"/>
+      <c r="U8" s="58"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="54"/>
+      <c r="W8" s="44"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="38"/>
+      <c r="B9" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C9" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="39">
+        <v>864811036961220</v>
+      </c>
+      <c r="F9" s="56"/>
       <c r="G9" s="38"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="40"/>
+      <c r="H9" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>157</v>
+      </c>
       <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="K9" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="L9" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>153</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="66"/>
+      <c r="O9" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="T9" s="44"/>
+      <c r="U9" s="58"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="54"/>
+      <c r="W9" s="44"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="40"/>
+      <c r="B10" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C10" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="39">
+        <v>868926033944692</v>
+      </c>
+      <c r="F10" s="56"/>
+      <c r="G10" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>83</v>
+      </c>
       <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="K10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>77</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="O10" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="66"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="58"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="54"/>
+      <c r="W10" s="44"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="B11" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C11" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="39">
+        <v>868345031039175</v>
+      </c>
+      <c r="F11" s="56"/>
+      <c r="G11" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>153</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="66"/>
+      <c r="O11" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="T11" s="44"/>
+      <c r="U11" s="58"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="54"/>
+      <c r="W11" s="44"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="B12" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C12" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="39">
+        <v>868926033963692</v>
+      </c>
+      <c r="F12" s="56"/>
+      <c r="G12" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="J12" s="40"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="K12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>77</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="65" t="s">
+      <c r="T12" s="44"/>
+      <c r="U12" s="57" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="54"/>
+      <c r="W12" s="44"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="40"/>
+      <c r="B13" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C13" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="39">
+        <v>868926033941250</v>
+      </c>
+      <c r="F13" s="56"/>
+      <c r="G13" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="I13" s="40" t="s">
+        <v>83</v>
+      </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="10"/>
+      <c r="O13" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S13" s="4"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="66"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="58"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="54"/>
+      <c r="W13" s="44"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
+      <c r="B14" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C14" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="39">
+        <v>868926033937050</v>
+      </c>
+      <c r="F14" s="56"/>
+      <c r="G14" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>151</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="66"/>
+      <c r="O14" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="T14" s="44"/>
+      <c r="U14" s="58"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="54"/>
+      <c r="W14" s="44"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="B15" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C15" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="39">
+        <v>868926033944908</v>
+      </c>
+      <c r="F15" s="56"/>
+      <c r="G15" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>83</v>
+      </c>
       <c r="J15" s="40"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="K15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="38"/>
+      <c r="O15" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="58"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="54"/>
+      <c r="W15" s="44"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="1"/>
+      <c r="B16" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C16" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="39">
+        <v>866192037771571</v>
+      </c>
+      <c r="F16" s="56"/>
+      <c r="G16" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="38" t="s">
+        <v>163</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
+      <c r="L16" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="38"/>
+      <c r="O16" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="59"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="54"/>
+      <c r="W16" s="44"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -6487,9 +6910,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="54"/>
+      <c r="U17" s="44"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="54"/>
+      <c r="W17" s="44"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -6541,7 +6964,7 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="55" t="s">
+      <c r="U19" s="45" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
@@ -6577,7 +7000,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -6641,7 +7064,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -6722,7 +7145,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="55" t="s">
+      <c r="U25" s="45" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
@@ -6918,7 +7341,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -7046,7 +7469,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -7110,7 +7533,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -7717,8 +8140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S16"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7750,43 +8173,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="61"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -7831,99 +8254,99 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="57" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="57"/>
-      <c r="M4" s="63" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="63" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="57" t="s">
+      <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="57" t="s">
+      <c r="R4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="69" t="s">
+      <c r="S4" s="62" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="57" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="57" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
-      <c r="B5" s="45" t="s">
+      <c r="A5" s="67"/>
+      <c r="B5" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="57"/>
-      <c r="K5" s="45" t="s">
+      <c r="J5" s="61"/>
+      <c r="K5" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="45" t="s">
+      <c r="L5" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="62"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7931,37 +8354,37 @@
         <v>1</v>
       </c>
       <c r="B6" s="37">
-        <v>44200</v>
-      </c>
-      <c r="C6" s="37"/>
+        <v>44287</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44320</v>
+      </c>
       <c r="D6" s="38" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E6" s="39">
-        <v>868926033962009</v>
+        <v>868183034709415</v>
       </c>
       <c r="F6" s="56"/>
-      <c r="G6" s="38" t="s">
-        <v>66</v>
-      </c>
+      <c r="G6" s="38"/>
       <c r="H6" s="38" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="I6" s="51" t="s">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="J6" s="40"/>
       <c r="K6" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="L6" s="43" t="s">
-        <v>139</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="L6" s="40"/>
       <c r="M6" s="40" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
+      <c r="O6" s="40" t="s">
+        <v>97</v>
+      </c>
       <c r="P6" s="40" t="s">
         <v>78</v>
       </c>
@@ -7972,552 +8395,306 @@
         <v>24</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="65" t="s">
+      <c r="T6" s="54"/>
+      <c r="U6" s="57" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="44"/>
+      <c r="W6" s="54"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B7" s="37"/>
       <c r="C7" s="37"/>
-      <c r="D7" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="39">
-        <v>864811036931439</v>
-      </c>
-      <c r="F7" s="56"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="38"/>
-      <c r="H7" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L7" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="M7" s="40" t="s">
-        <v>153</v>
-      </c>
+      <c r="H7" s="38"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
       <c r="N7" s="3"/>
       <c r="O7" s="40"/>
-      <c r="P7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="R7" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="T7" s="44"/>
-      <c r="U7" s="66"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="58"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="44"/>
+      <c r="W7" s="54"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B8" s="37"/>
       <c r="C8" s="37"/>
-      <c r="D8" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="39">
-        <v>868926034002805</v>
-      </c>
-      <c r="F8" s="56"/>
-      <c r="G8" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="J8" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="K8" s="41" t="s">
-        <v>139</v>
-      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="41"/>
       <c r="L8" s="40"/>
-      <c r="M8" s="40" t="s">
-        <v>142</v>
-      </c>
+      <c r="M8" s="40"/>
       <c r="N8" s="53"/>
       <c r="O8" s="40"/>
-      <c r="P8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="R8" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="T8" s="44"/>
-      <c r="U8" s="66"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="58"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="44"/>
+      <c r="W8" s="54"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B9" s="37"/>
       <c r="C9" s="37"/>
-      <c r="D9" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="39">
-        <v>864811036961220</v>
-      </c>
-      <c r="F9" s="56"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="38"/>
       <c r="G9" s="38"/>
-      <c r="H9" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="I9" s="40" t="s">
-        <v>157</v>
-      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="40"/>
       <c r="J9" s="40"/>
-      <c r="K9" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="L9" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="M9" s="40" t="s">
-        <v>153</v>
-      </c>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
       <c r="N9" s="1"/>
       <c r="O9" s="40"/>
-      <c r="P9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="R9" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="T9" s="44"/>
-      <c r="U9" s="66"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="58"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="44"/>
+      <c r="W9" s="54"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B10" s="37"/>
       <c r="C10" s="37"/>
-      <c r="D10" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="39">
-        <v>868926033944692</v>
-      </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="I10" s="40" t="s">
-        <v>83</v>
-      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="40"/>
       <c r="J10" s="40"/>
-      <c r="K10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L10" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="M10" s="40" t="s">
-        <v>77</v>
-      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
       <c r="N10" s="1"/>
       <c r="O10" s="40"/>
-      <c r="P10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>24</v>
-      </c>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="66"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="58"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="44"/>
+      <c r="W10" s="54"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B11" s="37"/>
       <c r="C11" s="37"/>
-      <c r="D11" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="39">
-        <v>868345031039175</v>
-      </c>
-      <c r="F11" s="56"/>
-      <c r="G11" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L11" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="M11" s="40" t="s">
-        <v>153</v>
-      </c>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
       <c r="N11" s="1"/>
       <c r="O11" s="40"/>
-      <c r="P11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="R11" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="T11" s="44"/>
-      <c r="U11" s="66"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="58"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="44"/>
+      <c r="W11" s="54"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B12" s="37"/>
       <c r="C12" s="37"/>
-      <c r="D12" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="39">
-        <v>868926033963692</v>
-      </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
       <c r="J12" s="40"/>
-      <c r="K12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L12" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="M12" s="40" t="s">
-        <v>77</v>
-      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
       <c r="N12" s="1"/>
       <c r="O12" s="40"/>
-      <c r="P12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R12" s="38" t="s">
-        <v>24</v>
-      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="65" t="s">
+      <c r="T12" s="54"/>
+      <c r="U12" s="57" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="44"/>
+      <c r="W12" s="54"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B13" s="37"/>
       <c r="C13" s="37"/>
-      <c r="D13" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="39">
-        <v>868926033941250</v>
-      </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="I13" s="40" t="s">
-        <v>83</v>
-      </c>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="40"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L13" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="40"/>
-      <c r="P13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R13" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="66"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="58"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="44"/>
+      <c r="W13" s="54"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B14" s="37"/>
       <c r="C14" s="37"/>
-      <c r="D14" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="39">
-        <v>868926033937050</v>
-      </c>
-      <c r="F14" s="56"/>
-      <c r="G14" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="I14" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="J14" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L14" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="M14" s="40" t="s">
-        <v>151</v>
-      </c>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
       <c r="N14" s="1"/>
       <c r="O14" s="40"/>
-      <c r="P14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="R14" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="T14" s="44"/>
-      <c r="U14" s="66"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="58"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="44"/>
+      <c r="W14" s="54"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B15" s="37"/>
       <c r="C15" s="37"/>
-      <c r="D15" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="39">
-        <v>868926033944908</v>
-      </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="I15" s="40" t="s">
-        <v>83</v>
-      </c>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
       <c r="J15" s="40"/>
-      <c r="K15" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L15" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
       <c r="N15" s="1"/>
       <c r="O15" s="40"/>
-      <c r="P15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R15" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="58"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="44"/>
+      <c r="W15" s="54"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="37">
-        <v>44200</v>
-      </c>
+      <c r="B16" s="37"/>
       <c r="C16" s="37"/>
-      <c r="D16" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="39">
-        <v>866192037771571</v>
-      </c>
-      <c r="F16" s="56"/>
-      <c r="G16" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
       <c r="N16" s="1"/>
       <c r="O16" s="40"/>
-      <c r="P16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R16" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="59"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="44"/>
+      <c r="W16" s="54"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -8542,9 +8719,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="44"/>
+      <c r="U17" s="54"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="44"/>
+      <c r="W17" s="54"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -8596,7 +8773,7 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="45" t="s">
+      <c r="U19" s="55" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
@@ -8632,7 +8809,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -8696,7 +8873,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -8777,7 +8954,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="45" t="s">
+      <c r="U25" s="55" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
@@ -8973,7 +9150,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -9101,7 +9278,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -9165,7 +9342,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -9772,7 +9949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -9805,43 +9982,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="61"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -9886,58 +10063,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="57" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="57"/>
-      <c r="M4" s="63" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="63" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="57" t="s">
+      <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="57" t="s">
+      <c r="R4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="69" t="s">
+      <c r="S4" s="62" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="57" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="57" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -9962,23 +10139,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="57"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="62"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10004,7 +10181,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="57" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -10035,7 +10212,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="58"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10064,7 +10241,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="58"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -10093,7 +10270,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="58"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -10122,7 +10299,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="66"/>
+      <c r="U10" s="58"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -10151,7 +10328,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="66"/>
+      <c r="U11" s="58"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -10180,7 +10357,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="57" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -10211,7 +10388,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="66"/>
+      <c r="U13" s="58"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -10240,7 +10417,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="66"/>
+      <c r="U14" s="58"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -10269,7 +10446,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="58"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -10298,7 +10475,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="59"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -11529,6 +11706,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -11540,13 +11724,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_DLVanLoi.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_DLVanLoi.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="165">
   <si>
     <t>STT</t>
   </si>
@@ -450,9 +450,6 @@
     <t>ID mới: 202104090901469</t>
   </si>
   <si>
-    <t>Thay bộ nhớ unsafe, nâng cấp FW, làm mới thiết bị</t>
-  </si>
-  <si>
     <t>LK,NCFW</t>
   </si>
   <si>
@@ -532,6 +529,12 @@
   </si>
   <si>
     <t>ID mới:202104121343571</t>
+  </si>
+  <si>
+    <t>Trả lắp đặt giữ chưa có phản hồi báo giá</t>
+  </si>
+  <si>
+    <t>KS</t>
   </si>
 </sst>
 </file>
@@ -606,7 +609,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -622,6 +625,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,7 +737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -898,22 +907,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -935,6 +929,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1276,43 +1306,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="61"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -1357,58 +1387,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="57"/>
+      <c r="M4" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="60" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="62" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="57" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="55" t="s">
         <v>1</v>
       </c>
@@ -1433,23 +1463,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="57"/>
       <c r="K5" s="55" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="62"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1503,7 +1533,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="57" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1562,7 +1592,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="58"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1619,7 +1649,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="58"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1674,7 +1704,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="58"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1731,7 +1761,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="58"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1788,7 +1818,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="58"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1845,7 +1875,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="57" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1904,7 +1934,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="58"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1957,7 +1987,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="58"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -2012,7 +2042,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="58"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -2065,7 +2095,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="59"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3008,7 +3038,7 @@
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>
       <c r="H33" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>83</v>
@@ -4182,6 +4212,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4193,13 +4230,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4210,8 +4240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4243,43 +4273,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="61"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -4324,58 +4354,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="57"/>
+      <c r="M4" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="60" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="62" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="57" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="55" t="s">
         <v>1</v>
       </c>
@@ -4400,71 +4430,73 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="57"/>
       <c r="K5" s="55" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="62"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="70">
         <v>1</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="71">
         <v>44287</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38" t="s">
+      <c r="C6" s="71">
+        <v>44314</v>
+      </c>
+      <c r="D6" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="73">
         <v>868183037843112</v>
       </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="38" t="s">
+      <c r="F6" s="74"/>
+      <c r="G6" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="I6" s="51"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="40" t="s">
+      <c r="H6" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="I6" s="75"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="M6" s="40" t="s">
+      <c r="M6" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="N6" s="76"/>
+      <c r="O6" s="72" t="s">
+        <v>164</v>
+      </c>
+      <c r="P6" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="R6" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="N6" s="3">
-        <v>120000</v>
-      </c>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="R6" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="S6" s="4"/>
+      <c r="S6" s="70"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="57" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4473,51 +4505,53 @@
       <c r="W6" s="54"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="70">
         <v>2</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="71">
         <v>44287</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38" t="s">
+      <c r="C7" s="71">
+        <v>44314</v>
+      </c>
+      <c r="D7" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="73">
         <v>868183034533989</v>
       </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="38" t="s">
+      <c r="F7" s="74"/>
+      <c r="G7" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="40" t="s">
+      <c r="H7" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="M7" s="40" t="s">
+      <c r="M7" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="N7" s="76"/>
+      <c r="O7" s="72" t="s">
+        <v>164</v>
+      </c>
+      <c r="P7" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="R7" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="N7" s="3">
-        <v>120000</v>
-      </c>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="R7" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="S7" s="4"/>
+      <c r="S7" s="70"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="58"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4546,7 +4580,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="58"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4575,7 +4609,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="58"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -4604,7 +4638,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="58"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4633,7 +4667,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="58"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4662,7 +4696,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="57" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -4693,7 +4727,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="58"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4722,7 +4756,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="58"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4751,7 +4785,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="58"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4780,7 +4814,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="59"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5550,7 +5584,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -6011,6 +6045,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6022,13 +6063,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6072,43 +6106,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="61"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -6153,58 +6187,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="57"/>
+      <c r="M4" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="60" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="62" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="57" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -6229,23 +6263,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="57"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="62"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6269,17 +6303,17 @@
         <v>66</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I6" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J6" s="40"/>
       <c r="K6" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L6" s="43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M6" s="40" t="s">
         <v>77</v>
@@ -6299,7 +6333,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="57" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6326,22 +6360,22 @@
       <c r="F7" s="56"/>
       <c r="G7" s="38"/>
       <c r="H7" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I7" s="40" t="s">
         <v>80</v>
       </c>
       <c r="J7" s="40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L7" s="43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M7" s="40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="40" t="s">
@@ -6354,13 +6388,13 @@
         <v>92</v>
       </c>
       <c r="R7" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T7" s="44"/>
-      <c r="U7" s="58"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6387,20 +6421,20 @@
         <v>66</v>
       </c>
       <c r="H8" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="I8" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="I8" s="40" t="s">
-        <v>141</v>
-      </c>
       <c r="J8" s="40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K8" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L8" s="40"/>
       <c r="M8" s="40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N8" s="53"/>
       <c r="O8" s="40" t="s">
@@ -6416,10 +6450,10 @@
         <v>30</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T8" s="44"/>
-      <c r="U8" s="58"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6444,20 +6478,20 @@
       <c r="F9" s="56"/>
       <c r="G9" s="38"/>
       <c r="H9" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I9" s="40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J9" s="40"/>
       <c r="K9" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L9" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M9" s="40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="40" t="s">
@@ -6470,13 +6504,13 @@
         <v>92</v>
       </c>
       <c r="R9" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T9" s="44"/>
-      <c r="U9" s="58"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6503,17 +6537,17 @@
         <v>66</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I10" s="40" t="s">
         <v>83</v>
       </c>
       <c r="J10" s="40"/>
       <c r="K10" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L10" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M10" s="40" t="s">
         <v>77</v>
@@ -6533,7 +6567,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="58"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -6560,22 +6594,22 @@
         <v>62</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>83</v>
       </c>
       <c r="J11" s="40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L11" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M11" s="40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="40" t="s">
@@ -6588,13 +6622,13 @@
         <v>92</v>
       </c>
       <c r="R11" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T11" s="44"/>
-      <c r="U11" s="58"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -6621,17 +6655,17 @@
         <v>66</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>83</v>
       </c>
       <c r="J12" s="40"/>
       <c r="K12" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L12" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M12" s="40" t="s">
         <v>77</v>
@@ -6651,7 +6685,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="57" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -6680,17 +6714,17 @@
         <v>66</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I13" s="40" t="s">
         <v>83</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L13" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>77</v>
@@ -6710,7 +6744,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="58"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -6737,22 +6771,22 @@
         <v>66</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I14" s="40" t="s">
         <v>83</v>
       </c>
       <c r="J14" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="M14" s="40" t="s">
         <v>150</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L14" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="M14" s="40" t="s">
-        <v>151</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="40" t="s">
@@ -6765,13 +6799,13 @@
         <v>92</v>
       </c>
       <c r="R14" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T14" s="44"/>
-      <c r="U14" s="58"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -6798,17 +6832,17 @@
         <v>66</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I15" s="40" t="s">
         <v>83</v>
       </c>
       <c r="J15" s="40"/>
       <c r="K15" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L15" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>77</v>
@@ -6828,7 +6862,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="58"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -6855,13 +6889,13 @@
         <v>62</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>77</v>
@@ -6881,7 +6915,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="59"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8112,13 +8146,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8130,6 +8157,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8173,43 +8207,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="61"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -8254,58 +8288,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="57"/>
+      <c r="M4" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="60" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="62" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="57" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="55" t="s">
         <v>1</v>
       </c>
@@ -8330,23 +8364,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="57"/>
       <c r="K5" s="55" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="62"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8396,7 +8430,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="57" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -8427,7 +8461,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="58"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8456,7 +8490,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="58"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8485,7 +8519,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="58"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -8514,7 +8548,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="58"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8543,7 +8577,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="58"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8572,7 +8606,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="57" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -8603,7 +8637,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="58"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8632,7 +8666,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="58"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8661,7 +8695,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="58"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8690,7 +8724,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="59"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9921,6 +9955,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9932,13 +9973,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9982,43 +10016,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="61"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -10063,58 +10097,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="57"/>
+      <c r="M4" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="60" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="62" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="57" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -10139,23 +10173,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="57"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="62"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10181,7 +10215,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="57" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -10212,7 +10246,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="58"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10241,7 +10275,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="58"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -10270,7 +10304,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="58"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -10299,7 +10333,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="58"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -10328,7 +10362,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="58"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -10357,7 +10391,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="57" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -10388,7 +10422,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="58"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -10417,7 +10451,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="58"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -10446,7 +10480,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="58"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -10475,7 +10509,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="59"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -11706,13 +11740,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -11724,6 +11751,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_DLVanLoi.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_DLVanLoi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="28" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="165">
   <si>
     <t>STT</t>
   </si>
@@ -892,9 +892,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -907,7 +904,43 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -931,41 +964,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1273,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P53" sqref="P53"/>
+    <sheetView showZeros="0" topLeftCell="L21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1306,43 +1306,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="61"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -1387,99 +1387,99 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="57"/>
-      <c r="M4" s="63" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="63" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="57" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="57" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="69" t="s">
+      <c r="S4" s="68" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="57" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="57" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
-      <c r="B5" s="55" t="s">
+      <c r="A5" s="73"/>
+      <c r="B5" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="57"/>
-      <c r="K5" s="55" t="s">
+      <c r="J5" s="67"/>
+      <c r="K5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="55" t="s">
+      <c r="L5" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="69"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="68"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1532,14 +1532,14 @@
         <v>24</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="65" t="s">
+      <c r="T6" s="53"/>
+      <c r="U6" s="63" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="54"/>
+      <c r="W6" s="53"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1591,12 +1591,12 @@
         <v>24</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="66"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="64"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="54"/>
+      <c r="W7" s="53"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1648,12 +1648,12 @@
         <v>24</v>
       </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="66"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="64"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="54"/>
+      <c r="W8" s="53"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1703,12 +1703,12 @@
         <v>25</v>
       </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="66"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="64"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="54"/>
+      <c r="W9" s="53"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -1760,12 +1760,12 @@
         <v>24</v>
       </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="66"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="64"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="54"/>
+      <c r="W10" s="53"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -1817,12 +1817,12 @@
         <v>24</v>
       </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="66"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="64"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="54"/>
+      <c r="W11" s="53"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -1874,14 +1874,14 @@
         <v>24</v>
       </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="65" t="s">
+      <c r="T12" s="53"/>
+      <c r="U12" s="63" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="54"/>
+      <c r="W12" s="53"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -1933,12 +1933,12 @@
         <v>24</v>
       </c>
       <c r="S13" s="4"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="66"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="64"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="54"/>
+      <c r="W13" s="53"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1986,12 +1986,12 @@
         <v>25</v>
       </c>
       <c r="S14" s="4"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="66"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="64"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="54"/>
+      <c r="W14" s="53"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -2042,11 +2042,11 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="64"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="54"/>
+      <c r="W15" s="53"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -2095,11 +2095,11 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="65"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="54"/>
+      <c r="W16" s="53"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -2150,9 +2150,9 @@
       </c>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="54"/>
+      <c r="U17" s="53"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="54"/>
+      <c r="W17" s="53"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="55" t="s">
+      <c r="U19" s="54" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="55" t="s">
+      <c r="U25" s="54" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
@@ -3327,7 +3327,7 @@
       <c r="E38" s="39">
         <v>868183035885685</v>
       </c>
-      <c r="F38" s="56"/>
+      <c r="F38" s="55"/>
       <c r="G38" s="38" t="s">
         <v>66</v>
       </c>
@@ -3380,7 +3380,7 @@
       <c r="E39" s="39">
         <v>868183034811575</v>
       </c>
-      <c r="F39" s="56"/>
+      <c r="F39" s="55"/>
       <c r="G39" s="38"/>
       <c r="H39" s="1" t="s">
         <v>99</v>
@@ -3433,7 +3433,7 @@
       <c r="E40" s="39">
         <v>868183034790522</v>
       </c>
-      <c r="F40" s="56"/>
+      <c r="F40" s="55"/>
       <c r="G40" s="38" t="s">
         <v>62</v>
       </c>
@@ -3493,7 +3493,7 @@
       <c r="E41" s="39">
         <v>868183034680749</v>
       </c>
-      <c r="F41" s="56"/>
+      <c r="F41" s="55"/>
       <c r="G41" s="38" t="s">
         <v>66</v>
       </c>
@@ -3551,7 +3551,7 @@
       <c r="E42" s="39">
         <v>868183034645908</v>
       </c>
-      <c r="F42" s="56"/>
+      <c r="F42" s="55"/>
       <c r="G42" s="38"/>
       <c r="H42" s="1" t="s">
         <v>125</v>
@@ -3600,7 +3600,7 @@
       <c r="E43" s="39">
         <v>868183034553607</v>
       </c>
-      <c r="F43" s="56"/>
+      <c r="F43" s="55"/>
       <c r="G43" s="38" t="s">
         <v>66</v>
       </c>
@@ -3655,7 +3655,7 @@
       <c r="E44" s="39">
         <v>868183034683115</v>
       </c>
-      <c r="F44" s="56"/>
+      <c r="F44" s="55"/>
       <c r="G44" s="38"/>
       <c r="H44" s="1" t="s">
         <v>94</v>
@@ -3717,7 +3717,7 @@
       <c r="E45" s="39">
         <v>867717030479126</v>
       </c>
-      <c r="F45" s="56"/>
+      <c r="F45" s="55"/>
       <c r="G45" s="38" t="s">
         <v>66</v>
       </c>
@@ -3739,7 +3739,7 @@
       <c r="M45" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="N45" s="53">
+      <c r="N45" s="52">
         <v>10000</v>
       </c>
       <c r="O45" s="1" t="s">
@@ -3788,7 +3788,7 @@
       <c r="E46" s="39">
         <v>868183035900989</v>
       </c>
-      <c r="F46" s="56"/>
+      <c r="F46" s="55"/>
       <c r="G46" s="38" t="s">
         <v>66</v>
       </c>
@@ -3855,7 +3855,7 @@
       <c r="E47" s="39">
         <v>868183035882468</v>
       </c>
-      <c r="F47" s="56"/>
+      <c r="F47" s="55"/>
       <c r="G47" s="38" t="s">
         <v>66</v>
       </c>
@@ -3922,7 +3922,7 @@
       <c r="E48" s="39">
         <v>868183034701198</v>
       </c>
-      <c r="F48" s="56"/>
+      <c r="F48" s="55"/>
       <c r="G48" s="38" t="s">
         <v>66</v>
       </c>
@@ -3992,7 +3992,7 @@
       <c r="E49" s="39">
         <v>868183034641923</v>
       </c>
-      <c r="F49" s="56"/>
+      <c r="F49" s="55"/>
       <c r="G49" s="38" t="s">
         <v>66</v>
       </c>
@@ -4212,13 +4212,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4230,6 +4223,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4240,8 +4240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showZeros="0" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4273,43 +4273,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="61"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -4354,208 +4354,208 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="57"/>
-      <c r="M4" s="63" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="63" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="57" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="57" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="69" t="s">
+      <c r="S4" s="68" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="57" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="57" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
-      <c r="B5" s="55" t="s">
+      <c r="A5" s="73"/>
+      <c r="B5" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="57"/>
-      <c r="K5" s="55" t="s">
+      <c r="J5" s="67"/>
+      <c r="K5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="55" t="s">
+      <c r="L5" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="69"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="68"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70">
+      <c r="A6" s="56">
         <v>1</v>
       </c>
-      <c r="B6" s="71">
+      <c r="B6" s="57">
         <v>44287</v>
       </c>
-      <c r="C6" s="71">
+      <c r="C6" s="57">
         <v>44314</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="73">
+      <c r="E6" s="59">
         <v>868183037843112</v>
       </c>
-      <c r="F6" s="74"/>
-      <c r="G6" s="72" t="s">
+      <c r="F6" s="60"/>
+      <c r="G6" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="72" t="s">
+      <c r="H6" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="I6" s="75"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72" t="s">
+      <c r="I6" s="61"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="M6" s="72" t="s">
+      <c r="M6" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="N6" s="76"/>
-      <c r="O6" s="72" t="s">
+      <c r="N6" s="62"/>
+      <c r="O6" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="P6" s="72" t="s">
+      <c r="P6" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Q6" s="76" t="s">
+      <c r="Q6" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="R6" s="72" t="s">
+      <c r="R6" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="S6" s="70"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="65" t="s">
+      <c r="S6" s="56"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="63" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="54"/>
+      <c r="W6" s="53"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70">
+      <c r="A7" s="56">
         <v>2</v>
       </c>
-      <c r="B7" s="71">
+      <c r="B7" s="57">
         <v>44287</v>
       </c>
-      <c r="C7" s="71">
+      <c r="C7" s="57">
         <v>44314</v>
       </c>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="73">
+      <c r="E7" s="59">
         <v>868183034533989</v>
       </c>
-      <c r="F7" s="74"/>
-      <c r="G7" s="72" t="s">
+      <c r="F7" s="60"/>
+      <c r="G7" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="72" t="s">
+      <c r="H7" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="72" t="s">
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="M7" s="72" t="s">
+      <c r="M7" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="N7" s="76"/>
-      <c r="O7" s="72" t="s">
+      <c r="N7" s="62"/>
+      <c r="O7" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="P7" s="72" t="s">
+      <c r="P7" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Q7" s="76" t="s">
+      <c r="Q7" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="R7" s="72" t="s">
+      <c r="R7" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="S7" s="70"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="66"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="64"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="54"/>
+      <c r="W7" s="53"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -4573,18 +4573,18 @@
       <c r="K8" s="41"/>
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
-      <c r="N8" s="53"/>
+      <c r="N8" s="52"/>
       <c r="O8" s="40"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="66"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="64"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="54"/>
+      <c r="W8" s="53"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -4608,12 +4608,12 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="66"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="64"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="54"/>
+      <c r="W9" s="53"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -4637,12 +4637,12 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="66"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="64"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="54"/>
+      <c r="W10" s="53"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -4666,12 +4666,12 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="66"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="64"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="54"/>
+      <c r="W11" s="53"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -4695,14 +4695,14 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="65" t="s">
+      <c r="T12" s="53"/>
+      <c r="U12" s="63" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="54"/>
+      <c r="W12" s="53"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -4726,12 +4726,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="66"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="64"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="54"/>
+      <c r="W13" s="53"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -4755,12 +4755,12 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="66"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="64"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="54"/>
+      <c r="W14" s="53"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -4785,11 +4785,11 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="64"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="54"/>
+      <c r="W15" s="53"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -4814,11 +4814,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="65"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="54"/>
+      <c r="W16" s="53"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -4843,9 +4843,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="54"/>
+      <c r="U17" s="53"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="54"/>
+      <c r="W17" s="53"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -4897,7 +4897,7 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="55" t="s">
+      <c r="U19" s="54" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
@@ -5078,7 +5078,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="55" t="s">
+      <c r="U25" s="54" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
@@ -6045,13 +6045,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6063,6 +6056,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6073,8 +6073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView showZeros="0" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6106,43 +6106,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="61"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -6187,58 +6187,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="57"/>
-      <c r="M4" s="63" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="63" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="57" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="57" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="69" t="s">
+      <c r="S4" s="68" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="57" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="57" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -6263,23 +6263,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="57"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="69"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="68"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6298,7 +6298,7 @@
       <c r="E6" s="39">
         <v>868926033962009</v>
       </c>
-      <c r="F6" s="56"/>
+      <c r="F6" s="55"/>
       <c r="G6" s="38" t="s">
         <v>66</v>
       </c>
@@ -6333,7 +6333,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="63" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6357,7 +6357,7 @@
       <c r="E7" s="39">
         <v>864811036931439</v>
       </c>
-      <c r="F7" s="56"/>
+      <c r="F7" s="55"/>
       <c r="G7" s="38"/>
       <c r="H7" s="38" t="s">
         <v>159</v>
@@ -6394,7 +6394,7 @@
         <v>142</v>
       </c>
       <c r="T7" s="44"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="64"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6416,7 +6416,7 @@
       <c r="E8" s="39">
         <v>868926034002805</v>
       </c>
-      <c r="F8" s="56"/>
+      <c r="F8" s="55"/>
       <c r="G8" s="38" t="s">
         <v>66</v>
       </c>
@@ -6436,7 +6436,7 @@
       <c r="M8" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="N8" s="53"/>
+      <c r="N8" s="52"/>
       <c r="O8" s="40" t="s">
         <v>97</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>142</v>
       </c>
       <c r="T8" s="44"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="64"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6475,7 +6475,7 @@
       <c r="E9" s="39">
         <v>864811036961220</v>
       </c>
-      <c r="F9" s="56"/>
+      <c r="F9" s="55"/>
       <c r="G9" s="38"/>
       <c r="H9" s="38" t="s">
         <v>157</v>
@@ -6510,7 +6510,7 @@
         <v>142</v>
       </c>
       <c r="T9" s="44"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="64"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6532,7 +6532,7 @@
       <c r="E10" s="39">
         <v>868926033944692</v>
       </c>
-      <c r="F10" s="56"/>
+      <c r="F10" s="55"/>
       <c r="G10" s="38" t="s">
         <v>66</v>
       </c>
@@ -6567,7 +6567,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="66"/>
+      <c r="U10" s="64"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -6589,7 +6589,7 @@
       <c r="E11" s="39">
         <v>868345031039175</v>
       </c>
-      <c r="F11" s="56"/>
+      <c r="F11" s="55"/>
       <c r="G11" s="38" t="s">
         <v>62</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>142</v>
       </c>
       <c r="T11" s="44"/>
-      <c r="U11" s="66"/>
+      <c r="U11" s="64"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -6650,7 +6650,7 @@
       <c r="E12" s="39">
         <v>868926033963692</v>
       </c>
-      <c r="F12" s="56"/>
+      <c r="F12" s="55"/>
       <c r="G12" s="38" t="s">
         <v>66</v>
       </c>
@@ -6685,7 +6685,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="63" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -6709,7 +6709,7 @@
       <c r="E13" s="39">
         <v>868926033941250</v>
       </c>
-      <c r="F13" s="56"/>
+      <c r="F13" s="55"/>
       <c r="G13" s="38" t="s">
         <v>66</v>
       </c>
@@ -6744,7 +6744,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="66"/>
+      <c r="U13" s="64"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -6766,7 +6766,7 @@
       <c r="E14" s="39">
         <v>868926033937050</v>
       </c>
-      <c r="F14" s="56"/>
+      <c r="F14" s="55"/>
       <c r="G14" s="38" t="s">
         <v>66</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>142</v>
       </c>
       <c r="T14" s="44"/>
-      <c r="U14" s="66"/>
+      <c r="U14" s="64"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -6827,7 +6827,7 @@
       <c r="E15" s="39">
         <v>868926033944908</v>
       </c>
-      <c r="F15" s="56"/>
+      <c r="F15" s="55"/>
       <c r="G15" s="38" t="s">
         <v>66</v>
       </c>
@@ -6862,7 +6862,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="64"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -6884,7 +6884,7 @@
       <c r="E16" s="39">
         <v>866192037771571</v>
       </c>
-      <c r="F16" s="56"/>
+      <c r="F16" s="55"/>
       <c r="G16" s="38" t="s">
         <v>62</v>
       </c>
@@ -6915,7 +6915,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="65"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8146,6 +8146,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8157,13 +8164,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8174,8 +8174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showZeros="0" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8207,43 +8207,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="61"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -8288,99 +8288,99 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="57"/>
-      <c r="M4" s="63" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="63" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="57" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="57" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="69" t="s">
+      <c r="S4" s="68" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="57" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="57" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
-      <c r="B5" s="55" t="s">
+      <c r="A5" s="73"/>
+      <c r="B5" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="57"/>
-      <c r="K5" s="55" t="s">
+      <c r="J5" s="67"/>
+      <c r="K5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="55" t="s">
+      <c r="L5" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="69"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="68"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8399,7 +8399,7 @@
       <c r="E6" s="39">
         <v>868183034709415</v>
       </c>
-      <c r="F6" s="56"/>
+      <c r="F6" s="55"/>
       <c r="G6" s="38"/>
       <c r="H6" s="38" t="s">
         <v>74</v>
@@ -8429,14 +8429,14 @@
         <v>24</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="65" t="s">
+      <c r="T6" s="53"/>
+      <c r="U6" s="63" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="54"/>
+      <c r="W6" s="53"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -8460,12 +8460,12 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="66"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="64"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="54"/>
+      <c r="W7" s="53"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -8483,18 +8483,18 @@
       <c r="K8" s="41"/>
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
-      <c r="N8" s="53"/>
+      <c r="N8" s="52"/>
       <c r="O8" s="40"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="66"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="64"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="54"/>
+      <c r="W8" s="53"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -8518,12 +8518,12 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="66"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="64"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="54"/>
+      <c r="W9" s="53"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -8547,12 +8547,12 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="66"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="64"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="54"/>
+      <c r="W10" s="53"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -8576,12 +8576,12 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="66"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="64"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="54"/>
+      <c r="W11" s="53"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -8605,14 +8605,14 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="65" t="s">
+      <c r="T12" s="53"/>
+      <c r="U12" s="63" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="54"/>
+      <c r="W12" s="53"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -8636,12 +8636,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="66"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="64"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="54"/>
+      <c r="W13" s="53"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -8665,12 +8665,12 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="66"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="64"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="54"/>
+      <c r="W14" s="53"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -8695,11 +8695,11 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="64"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="54"/>
+      <c r="W15" s="53"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -8724,11 +8724,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="65"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="54"/>
+      <c r="W16" s="53"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -8753,9 +8753,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="54"/>
+      <c r="U17" s="53"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="54"/>
+      <c r="W17" s="53"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -8807,7 +8807,7 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="55" t="s">
+      <c r="U19" s="54" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
@@ -8988,7 +8988,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="55" t="s">
+      <c r="U25" s="54" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
@@ -9955,13 +9955,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9973,6 +9966,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9981,10 +9981,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X57"/>
+  <dimension ref="A1:X105"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="K26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10016,43 +10016,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="61"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -10097,58 +10097,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="57"/>
-      <c r="M4" s="63" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="63" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="57" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="57" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="69" t="s">
+      <c r="S4" s="68" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="57" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="57" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -10173,49 +10173,77 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="57"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="69"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="68"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="39">
+        <v>868183037836819</v>
+      </c>
       <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="51"/>
+      <c r="G6" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>129</v>
+      </c>
       <c r="J6" s="40"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="K6" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="63" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -10227,26 +10255,54 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
+      <c r="B7" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C7" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="39">
+        <v>868183035850184</v>
+      </c>
       <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="40"/>
+      <c r="G7" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>80</v>
+      </c>
       <c r="J7" s="40"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="K7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="64"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10256,26 +10312,54 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
+      <c r="B8" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C8" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="39">
+        <v>868183035926299</v>
+      </c>
       <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="40"/>
+      <c r="G8" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>80</v>
+      </c>
       <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="K8" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="64"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -10285,26 +10369,52 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
+      <c r="B9" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C9" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="39">
+        <v>868183035872790</v>
+      </c>
       <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="40"/>
+      <c r="G9" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>83</v>
+      </c>
       <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
+      <c r="K9" s="40" t="s">
+        <v>76</v>
+      </c>
       <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="M9" s="40" t="s">
+        <v>86</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="64"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -10314,26 +10424,54 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="B10" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C10" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="39">
+        <v>868183034638812</v>
+      </c>
       <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="40"/>
+      <c r="G10" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>80</v>
+      </c>
       <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="K10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="O10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="66"/>
+      <c r="U10" s="64"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -10343,26 +10481,54 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
+      <c r="B11" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C11" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="39">
+        <v>868183035932032</v>
+      </c>
       <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="52"/>
+      <c r="G11" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" s="40" t="s">
+        <v>80</v>
+      </c>
       <c r="J11" s="40"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="K11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="66"/>
+      <c r="U11" s="64"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -10372,26 +10538,54 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
+      <c r="B12" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C12" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="39">
+        <v>860157040211812</v>
+      </c>
       <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="G12" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="J12" s="40"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="K12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="63" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -10403,26 +10597,54 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
+      <c r="B13" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C13" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="39">
+        <v>868183035891253</v>
+      </c>
       <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="40"/>
+      <c r="G13" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" s="40" t="s">
+        <v>80</v>
+      </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="10"/>
+      <c r="O13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="66"/>
+      <c r="U13" s="64"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -10432,26 +10654,50 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
+      <c r="B14" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C14" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="39">
+        <v>868183034726781</v>
+      </c>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="40"/>
+      <c r="H14" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>83</v>
+      </c>
       <c r="J14" s="40"/>
-      <c r="K14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
+      <c r="M14" s="40" t="s">
+        <v>86</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="38"/>
+      <c r="O14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="66"/>
+      <c r="U14" s="64"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -10461,26 +10707,52 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
+      <c r="B15" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C15" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="39">
+        <v>868183034653951</v>
+      </c>
       <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="G15" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>83</v>
+      </c>
       <c r="J15" s="40"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="L15" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>86</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="38"/>
+      <c r="O15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="64"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -10490,26 +10762,50 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
+      <c r="B16" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C16" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="39">
+        <v>868183034645437</v>
+      </c>
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="H16" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="I16" s="40" t="s">
+        <v>83</v>
+      </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
+      <c r="M16" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="38"/>
+      <c r="O16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="65"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10519,23 +10815,49 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
+      <c r="B17" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C17" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="39">
+        <v>868183034732615</v>
+      </c>
       <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="40"/>
+      <c r="G17" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" s="40" t="s">
+        <v>113</v>
+      </c>
       <c r="J17" s="40"/>
-      <c r="K17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="40"/>
+      <c r="M17" s="40" t="s">
+        <v>86</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="38"/>
+      <c r="O17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
       <c r="U17" s="44"/>
@@ -10546,22 +10868,48 @@
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
+      <c r="B18" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C18" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="39">
+        <v>868183038519539</v>
+      </c>
       <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="G18" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="10"/>
+      <c r="K18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
+      <c r="O18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="R18" s="10"/>
       <c r="S18" s="4"/>
       <c r="T18" s="14"/>
@@ -10573,23 +10921,51 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
+      <c r="B19" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C19" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="39">
+        <v>868183033853669</v>
+      </c>
       <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="G19" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="10"/>
+      <c r="O19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
       <c r="U19" s="45" t="s">
@@ -10604,23 +10980,49 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
+      <c r="B20" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C20" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="39">
+        <v>868183034675251</v>
+      </c>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="H20" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="10"/>
+      <c r="O20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S20" s="4"/>
       <c r="T20" s="14"/>
       <c r="U20" s="10" t="s">
@@ -10628,7 +11030,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -10636,23 +11038,49 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
+      <c r="B21" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C21" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="39">
+        <v>868183035933063</v>
+      </c>
       <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="G21" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="M21" s="40" t="s">
+        <v>86</v>
+      </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="10"/>
+      <c r="O21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S21" s="4"/>
       <c r="T21" s="14"/>
       <c r="U21" s="10" t="s">
@@ -10668,23 +11096,51 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
+      <c r="B22" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C22" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="39">
+        <v>868183035879332</v>
+      </c>
       <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="1"/>
+      <c r="G22" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="10"/>
+      <c r="K22" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S22" s="4"/>
       <c r="T22" s="14"/>
       <c r="U22" s="10" t="s">
@@ -10692,7 +11148,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -10700,23 +11156,49 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
+      <c r="B23" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C23" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="39">
+        <v>868183034532049</v>
+      </c>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="1"/>
+      <c r="H23" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="10"/>
+      <c r="K23" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S23" s="4"/>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
@@ -10727,23 +11209,51 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
+      <c r="B24" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C24" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="39">
+        <v>868183034811336</v>
+      </c>
       <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="1"/>
+      <c r="G24" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="10"/>
+      <c r="K24" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S24" s="4"/>
       <c r="T24" s="14"/>
       <c r="U24" s="14"/>
@@ -10754,23 +11264,51 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
+      <c r="B25" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C25" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="39">
+        <v>868183035921464</v>
+      </c>
       <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="1"/>
+      <c r="G25" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
+      <c r="K25" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="N25" s="10"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="10"/>
+      <c r="O25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
       <c r="U25" s="45" t="s">
@@ -10785,23 +11323,49 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
+      <c r="B26" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C26" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="39">
+        <v>868183038533720</v>
+      </c>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="1"/>
+      <c r="H26" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="J26" s="1"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
+      <c r="K26" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="N26" s="10"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="10"/>
+      <c r="O26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S26" s="4"/>
       <c r="T26" s="14"/>
       <c r="U26" s="4" t="s">
@@ -10817,23 +11381,47 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
+      <c r="B27" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C27" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="39">
+        <v>868183034625140</v>
+      </c>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="1"/>
+      <c r="H27" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="10"/>
+      <c r="K27" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
+      <c r="M27" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="N27" s="10"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="10"/>
+      <c r="O27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S27" s="4"/>
       <c r="T27" s="14"/>
       <c r="U27" s="4" t="s">
@@ -10849,23 +11437,51 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="39"/>
+      <c r="B28" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C28" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="39">
+        <v>868183034540372</v>
+      </c>
       <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="G28" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
+      <c r="K28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="N28" s="1"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="10"/>
+      <c r="O28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S28" s="4"/>
       <c r="T28" s="14"/>
       <c r="U28" s="4" t="s">
@@ -10881,23 +11497,49 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="39"/>
+      <c r="B29" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C29" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="39">
+        <v>868183034759469</v>
+      </c>
       <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="G29" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="K29" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
+      <c r="M29" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="N29" s="1"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="10"/>
+      <c r="O29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R29" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="S29" s="4"/>
       <c r="T29" s="14"/>
       <c r="U29" s="4" t="s">
@@ -10905,7 +11547,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -10913,23 +11555,49 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="B30" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C30" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="39">
+        <v>868183034609623</v>
+      </c>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="K30" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+      <c r="M30" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="10"/>
+      <c r="O30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R30" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="S30" s="4"/>
       <c r="T30" s="14"/>
       <c r="U30" s="4" t="s">
@@ -10945,23 +11613,51 @@
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="B31" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C31" s="9">
+        <v>44320</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="39">
+        <v>868183034540885</v>
+      </c>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="K31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="10"/>
+      <c r="O31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R31" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S31" s="4"/>
       <c r="T31" s="14"/>
       <c r="U31" s="4" t="s">
@@ -10969,7 +11665,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -10977,23 +11673,51 @@
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="B32" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C32" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="39">
+        <v>868183034679980</v>
+      </c>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="K32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="10"/>
+      <c r="O32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R32" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S32" s="4"/>
       <c r="T32" s="14"/>
       <c r="U32" s="4" t="s">
@@ -11009,23 +11733,49 @@
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="B33" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C33" s="9">
+        <v>44320</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="39">
+        <v>868183035934749</v>
+      </c>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="K33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="10"/>
+      <c r="O33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R33" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S33" s="4"/>
       <c r="T33" s="14"/>
       <c r="U33" s="4" t="s">
@@ -11041,23 +11791,49 @@
       <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="B34" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C34" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="39">
+        <v>868183035946719</v>
+      </c>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="K34" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+      <c r="M34" s="40" t="s">
+        <v>86</v>
+      </c>
       <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="10"/>
+      <c r="O34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R34" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="S34" s="4"/>
       <c r="T34" s="14"/>
       <c r="U34" s="4" t="s">
@@ -11073,23 +11849,49 @@
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="B35" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C35" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="39">
+        <v>868183035849608</v>
+      </c>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="K35" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="M35" s="40" t="s">
+        <v>86</v>
+      </c>
       <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="10"/>
+      <c r="O35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R35" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S35" s="4"/>
       <c r="T35" s="14"/>
       <c r="U35" s="4" t="s">
@@ -11097,7 +11899,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -11105,23 +11907,51 @@
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="B36" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C36" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D36" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="39">
+        <v>868183034734173</v>
+      </c>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
+      <c r="K36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="10"/>
+      <c r="O36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R36" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S36" s="4"/>
       <c r="T36" s="14"/>
       <c r="U36" s="4" t="s">
@@ -11129,7 +11959,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -11137,23 +11967,49 @@
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="B37" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C37" s="9">
+        <v>44320</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="39">
+        <v>868183035872972</v>
+      </c>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="K37" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
+      <c r="M37" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="10"/>
+      <c r="O37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R37" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="S37" s="4"/>
       <c r="T37" s="14"/>
       <c r="U37" s="18" t="s">
@@ -11161,7 +12017,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -11169,23 +12025,49 @@
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="B38" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C38" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D38" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="39">
+        <v>868183035885685</v>
+      </c>
+      <c r="F38" s="55"/>
+      <c r="G38" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="K38" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
+      <c r="M38" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="10"/>
+      <c r="O38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R38" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="S38" s="4"/>
       <c r="T38" s="14"/>
       <c r="U38" s="14"/>
@@ -11196,23 +12078,49 @@
       <c r="A39" s="4">
         <v>34</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="B39" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C39" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="39">
+        <v>868183034811575</v>
+      </c>
+      <c r="F39" s="55"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
+      <c r="K39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="10"/>
+      <c r="O39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R39" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S39" s="4"/>
       <c r="T39" s="14"/>
       <c r="U39" s="14"/>
@@ -11223,23 +12131,51 @@
       <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="B40" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C40" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="39">
+        <v>868183034790522</v>
+      </c>
+      <c r="F40" s="55"/>
+      <c r="G40" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
+      <c r="K40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="10"/>
+      <c r="O40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R40" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S40" s="4"/>
       <c r="T40" s="14"/>
       <c r="U40" s="18" t="s">
@@ -11255,23 +12191,49 @@
       <c r="A41" s="4">
         <v>36</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="B41" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C41" s="9">
+        <v>44320</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="39">
+        <v>868183034680749</v>
+      </c>
+      <c r="F41" s="55"/>
+      <c r="G41" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
+      <c r="K41" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+      <c r="M41" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="10"/>
+      <c r="O41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R41" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="S41" s="4"/>
       <c r="T41" s="14"/>
       <c r="U41" s="18" t="s">
@@ -11279,7 +12241,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -11287,22 +12249,44 @@
       <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="B42" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C42" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D42" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="39">
+        <v>868183034645908</v>
+      </c>
+      <c r="F42" s="55"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
+      <c r="K42" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
+      <c r="M42" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="4"/>
+      <c r="O42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="R42" s="10"/>
       <c r="S42" s="4"/>
       <c r="T42" s="14"/>
@@ -11314,23 +12298,51 @@
       <c r="A43" s="4">
         <v>38</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="B43" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C43" s="9">
+        <v>44320</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="39">
+        <v>868183034553607</v>
+      </c>
+      <c r="F43" s="55"/>
+      <c r="G43" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+      <c r="K43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="10"/>
+      <c r="O43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R43" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S43" s="4"/>
       <c r="T43" s="14"/>
       <c r="U43" s="14"/>
@@ -11341,23 +12353,49 @@
       <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="B44" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C44" s="9">
+        <v>44320</v>
+      </c>
+      <c r="D44" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="39">
+        <v>868183034683115</v>
+      </c>
+      <c r="F44" s="55"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
+      <c r="K44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="10"/>
+      <c r="O44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R44" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S44" s="4"/>
       <c r="T44" s="14"/>
       <c r="U44" s="10" t="s">
@@ -11377,23 +12415,55 @@
       <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="10"/>
+      <c r="B45" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C45" s="9">
+        <v>44320</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="39">
+        <v>867717030479126</v>
+      </c>
+      <c r="F45" s="55"/>
+      <c r="G45" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N45" s="52">
+        <v>10000</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R45" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="S45" s="4"/>
       <c r="T45" s="14"/>
       <c r="U45" s="10" t="s">
@@ -11416,23 +12486,51 @@
       <c r="A46" s="4">
         <v>41</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="B46" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C46" s="9">
+        <v>44320</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="39">
+        <v>868183035900989</v>
+      </c>
+      <c r="F46" s="55"/>
+      <c r="G46" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
+      <c r="K46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="10"/>
+      <c r="O46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R46" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S46" s="4"/>
       <c r="T46" s="14"/>
       <c r="U46" s="10" t="s">
@@ -11455,23 +12553,51 @@
       <c r="A47" s="4">
         <v>42</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="B47" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C47" s="9">
+        <v>44320</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="39">
+        <v>868183035882468</v>
+      </c>
+      <c r="F47" s="55"/>
+      <c r="G47" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
+      <c r="K47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="10"/>
+      <c r="O47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R47" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S47" s="4"/>
       <c r="T47" s="14"/>
       <c r="U47" s="10" t="s">
@@ -11494,23 +12620,51 @@
       <c r="A48" s="4">
         <v>43</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="B48" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C48" s="9">
+        <v>44320</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="39">
+        <v>868183034701198</v>
+      </c>
+      <c r="F48" s="55"/>
+      <c r="G48" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
+      <c r="K48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="10"/>
+      <c r="O48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R48" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S48" s="4"/>
       <c r="T48" s="35">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
@@ -11536,23 +12690,51 @@
       <c r="A49" s="4">
         <v>44</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="B49" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C49" s="9">
+        <v>44320</v>
+      </c>
+      <c r="D49" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="39">
+        <v>868183034641923</v>
+      </c>
+      <c r="F49" s="55"/>
+      <c r="G49" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
+      <c r="K49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="10"/>
+      <c r="O49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R49" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
       <c r="U49" s="47"/>
@@ -11564,24 +12746,48 @@
       <c r="A50" s="29">
         <v>45</v>
       </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
-      <c r="O50" s="32"/>
-      <c r="P50" s="32"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="46"/>
-      <c r="S50" s="29"/>
+      <c r="B50" s="57">
+        <v>44287</v>
+      </c>
+      <c r="C50" s="57">
+        <v>44314</v>
+      </c>
+      <c r="D50" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" s="59">
+        <v>868183037843112</v>
+      </c>
+      <c r="F50" s="60"/>
+      <c r="G50" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="H50" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="I50" s="61"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="58"/>
+      <c r="L50" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="M50" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="N50" s="62"/>
+      <c r="O50" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="P50" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q50" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="R50" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="S50" s="56"/>
       <c r="T50" s="35"/>
       <c r="U50" s="47"/>
       <c r="V50" s="47"/>
@@ -11592,24 +12798,48 @@
       <c r="A51" s="4">
         <v>46</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
+      <c r="B51" s="57">
+        <v>44287</v>
+      </c>
+      <c r="C51" s="57">
+        <v>44314</v>
+      </c>
+      <c r="D51" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="59">
+        <v>868183034533989</v>
+      </c>
+      <c r="F51" s="60"/>
+      <c r="G51" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="H51" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="I51" s="58"/>
+      <c r="J51" s="58"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="M51" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="N51" s="62"/>
+      <c r="O51" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="P51" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q51" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="R51" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="S51" s="56"/>
       <c r="T51" s="35"/>
       <c r="U51" s="47"/>
       <c r="V51" s="47"/>
@@ -11620,24 +12850,52 @@
       <c r="A52" s="4">
         <v>47</v>
       </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="33"/>
-      <c r="N52" s="33"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="33"/>
-      <c r="R52" s="33"/>
-      <c r="S52" s="33"/>
+      <c r="B52" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C52" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D52" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" s="39">
+        <v>868926033962009</v>
+      </c>
+      <c r="F52" s="55"/>
+      <c r="G52" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H52" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="I52" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="J52" s="40"/>
+      <c r="K52" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="L52" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="M52" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="N52" s="42"/>
+      <c r="O52" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P52" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R52" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S52" s="4"/>
       <c r="T52" s="35"/>
       <c r="U52" s="47"/>
       <c r="V52" s="47"/>
@@ -11648,24 +12906,54 @@
       <c r="A53" s="4">
         <v>48</v>
       </c>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="33"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="33"/>
-      <c r="S53" s="33"/>
+      <c r="B53" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C53" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D53" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" s="39">
+        <v>864811036931439</v>
+      </c>
+      <c r="F53" s="55"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="I53" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="J53" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="L53" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="M53" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="N53" s="3"/>
+      <c r="O53" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q53" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R53" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="S53" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="T53" s="35"/>
       <c r="U53" s="47"/>
       <c r="V53" s="47"/>
@@ -11676,24 +12964,54 @@
       <c r="A54" s="4">
         <v>49</v>
       </c>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="33"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="33"/>
-      <c r="R54" s="33"/>
-      <c r="S54" s="33"/>
+      <c r="B54" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C54" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D54" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E54" s="39">
+        <v>868926034002805</v>
+      </c>
+      <c r="F54" s="55"/>
+      <c r="G54" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H54" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="I54" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="J54" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="K54" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="N54" s="52"/>
+      <c r="O54" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R54" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="S54" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="T54" s="35"/>
       <c r="U54" s="47"/>
       <c r="V54" s="47"/>
@@ -11704,42 +13022,1447 @@
       <c r="A55" s="4">
         <v>50</v>
       </c>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="33"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="36"/>
+      <c r="B55" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C55" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D55" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55" s="39">
+        <v>864811036961220</v>
+      </c>
+      <c r="F55" s="55"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="I55" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="L55" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="M55" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="N55" s="1"/>
+      <c r="O55" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q55" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R55" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="S55" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="T55" s="76"/>
       <c r="U55" s="47"/>
       <c r="V55" s="47"/>
       <c r="W55" s="47"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>51</v>
+      </c>
+      <c r="B56" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C56" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D56" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" s="39">
+        <v>868926033944692</v>
+      </c>
+      <c r="F56" s="55"/>
+      <c r="G56" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H56" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="I56" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="J56" s="40"/>
+      <c r="K56" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L56" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="M56" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="N56" s="1"/>
+      <c r="O56" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R56" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S56" s="4"/>
       <c r="U56" s="25"/>
       <c r="V56" s="25"/>
       <c r="W56" s="25"/>
     </row>
     <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>52</v>
+      </c>
+      <c r="B57" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C57" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D57" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" s="39">
+        <v>868345031039175</v>
+      </c>
+      <c r="F57" s="55"/>
+      <c r="G57" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J57" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L57" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="M57" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="N57" s="1"/>
+      <c r="O57" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R57" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="S57" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="U57" s="25"/>
       <c r="V57" s="25"/>
       <c r="W57" s="25"/>
     </row>
+    <row r="58" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>53</v>
+      </c>
+      <c r="B58" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C58" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D58" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E58" s="39">
+        <v>868926033963692</v>
+      </c>
+      <c r="F58" s="55"/>
+      <c r="G58" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H58" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J58" s="40"/>
+      <c r="K58" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L58" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="M58" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="N58" s="1"/>
+      <c r="O58" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q58" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R58" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S58" s="4"/>
+    </row>
+    <row r="59" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>54</v>
+      </c>
+      <c r="B59" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C59" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D59" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E59" s="39">
+        <v>868926033941250</v>
+      </c>
+      <c r="F59" s="55"/>
+      <c r="G59" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H59" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="I59" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L59" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N59" s="1"/>
+      <c r="O59" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R59" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S59" s="4"/>
+    </row>
+    <row r="60" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>55</v>
+      </c>
+      <c r="B60" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C60" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D60" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60" s="39">
+        <v>868926033937050</v>
+      </c>
+      <c r="F60" s="55"/>
+      <c r="G60" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H60" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="I60" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="J60" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L60" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="M60" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="N60" s="1"/>
+      <c r="O60" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q60" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R60" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="S60" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>56</v>
+      </c>
+      <c r="B61" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C61" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D61" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" s="39">
+        <v>868926033944908</v>
+      </c>
+      <c r="F61" s="55"/>
+      <c r="G61" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H61" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="I61" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="J61" s="40"/>
+      <c r="K61" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L61" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N61" s="1"/>
+      <c r="O61" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q61" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R61" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S61" s="4"/>
+    </row>
+    <row r="62" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>57</v>
+      </c>
+      <c r="B62" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C62" s="37">
+        <v>44308</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" s="39">
+        <v>866192037771571</v>
+      </c>
+      <c r="F62" s="55"/>
+      <c r="G62" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H62" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N62" s="1"/>
+      <c r="O62" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R62" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S62" s="4"/>
+    </row>
+    <row r="63" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>58</v>
+      </c>
+      <c r="B63" s="37">
+        <v>44287</v>
+      </c>
+      <c r="C63" s="37">
+        <v>44320</v>
+      </c>
+      <c r="D63" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E63" s="39">
+        <v>868183034709415</v>
+      </c>
+      <c r="F63" s="55"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="I63" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J63" s="40"/>
+      <c r="K63" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="L63" s="40"/>
+      <c r="M63" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="N63" s="42"/>
+      <c r="O63" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P63" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q63" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R63" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S63" s="4"/>
+    </row>
+    <row r="64" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>59</v>
+      </c>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="34"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="33"/>
+      <c r="O64" s="33"/>
+      <c r="P64" s="33"/>
+      <c r="Q64" s="33"/>
+      <c r="R64" s="33"/>
+      <c r="S64" s="33"/>
+    </row>
+    <row r="65" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>60</v>
+      </c>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="34"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="33"/>
+      <c r="O65" s="33"/>
+      <c r="P65" s="33"/>
+      <c r="Q65" s="33"/>
+      <c r="R65" s="33"/>
+      <c r="S65" s="33"/>
+    </row>
+    <row r="66" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>61</v>
+      </c>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="33"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="33"/>
+      <c r="N66" s="33"/>
+      <c r="O66" s="33"/>
+      <c r="P66" s="33"/>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="33"/>
+      <c r="S66" s="33"/>
+    </row>
+    <row r="67" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>62</v>
+      </c>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="33"/>
+      <c r="K67" s="33"/>
+      <c r="L67" s="34"/>
+      <c r="M67" s="33"/>
+      <c r="N67" s="33"/>
+      <c r="O67" s="33"/>
+      <c r="P67" s="33"/>
+      <c r="Q67" s="33"/>
+      <c r="R67" s="33"/>
+      <c r="S67" s="33"/>
+    </row>
+    <row r="68" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>63</v>
+      </c>
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="33"/>
+      <c r="J68" s="33"/>
+      <c r="K68" s="33"/>
+      <c r="L68" s="34"/>
+      <c r="M68" s="33"/>
+      <c r="N68" s="33"/>
+      <c r="O68" s="33"/>
+      <c r="P68" s="33"/>
+      <c r="Q68" s="33"/>
+      <c r="R68" s="33"/>
+      <c r="S68" s="33"/>
+    </row>
+    <row r="69" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>64</v>
+      </c>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="33"/>
+      <c r="L69" s="34"/>
+      <c r="M69" s="33"/>
+      <c r="N69" s="33"/>
+      <c r="O69" s="33"/>
+      <c r="P69" s="33"/>
+      <c r="Q69" s="33"/>
+      <c r="R69" s="33"/>
+      <c r="S69" s="33"/>
+    </row>
+    <row r="70" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>65</v>
+      </c>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="33"/>
+      <c r="L70" s="34"/>
+      <c r="M70" s="33"/>
+      <c r="N70" s="33"/>
+      <c r="O70" s="33"/>
+      <c r="P70" s="33"/>
+      <c r="Q70" s="33"/>
+      <c r="R70" s="33"/>
+      <c r="S70" s="33"/>
+    </row>
+    <row r="71" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>66</v>
+      </c>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="33"/>
+      <c r="J71" s="33"/>
+      <c r="K71" s="33"/>
+      <c r="L71" s="34"/>
+      <c r="M71" s="33"/>
+      <c r="N71" s="33"/>
+      <c r="O71" s="33"/>
+      <c r="P71" s="33"/>
+      <c r="Q71" s="33"/>
+      <c r="R71" s="33"/>
+      <c r="S71" s="33"/>
+    </row>
+    <row r="72" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>67</v>
+      </c>
+      <c r="B72" s="33"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="33"/>
+      <c r="I72" s="33"/>
+      <c r="J72" s="33"/>
+      <c r="K72" s="33"/>
+      <c r="L72" s="34"/>
+      <c r="M72" s="33"/>
+      <c r="N72" s="33"/>
+      <c r="O72" s="33"/>
+      <c r="P72" s="33"/>
+      <c r="Q72" s="33"/>
+      <c r="R72" s="33"/>
+      <c r="S72" s="33"/>
+    </row>
+    <row r="73" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>68</v>
+      </c>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="33"/>
+      <c r="I73" s="33"/>
+      <c r="J73" s="33"/>
+      <c r="K73" s="33"/>
+      <c r="L73" s="34"/>
+      <c r="M73" s="33"/>
+      <c r="N73" s="33"/>
+      <c r="O73" s="33"/>
+      <c r="P73" s="33"/>
+      <c r="Q73" s="33"/>
+      <c r="R73" s="33"/>
+      <c r="S73" s="33"/>
+    </row>
+    <row r="74" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>69</v>
+      </c>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="33"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="34"/>
+      <c r="M74" s="33"/>
+      <c r="N74" s="33"/>
+      <c r="O74" s="33"/>
+      <c r="P74" s="33"/>
+      <c r="Q74" s="33"/>
+      <c r="R74" s="33"/>
+      <c r="S74" s="33"/>
+    </row>
+    <row r="75" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>70</v>
+      </c>
+      <c r="B75" s="33"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="33"/>
+      <c r="J75" s="33"/>
+      <c r="K75" s="33"/>
+      <c r="L75" s="34"/>
+      <c r="M75" s="33"/>
+      <c r="N75" s="33"/>
+      <c r="O75" s="33"/>
+      <c r="P75" s="33"/>
+      <c r="Q75" s="33"/>
+      <c r="R75" s="33"/>
+      <c r="S75" s="33"/>
+    </row>
+    <row r="76" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>71</v>
+      </c>
+      <c r="B76" s="33"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="33"/>
+      <c r="I76" s="33"/>
+      <c r="J76" s="33"/>
+      <c r="K76" s="33"/>
+      <c r="L76" s="34"/>
+      <c r="M76" s="33"/>
+      <c r="N76" s="33"/>
+      <c r="O76" s="33"/>
+      <c r="P76" s="33"/>
+      <c r="Q76" s="33"/>
+      <c r="R76" s="33"/>
+      <c r="S76" s="33"/>
+    </row>
+    <row r="77" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>72</v>
+      </c>
+      <c r="B77" s="33"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="33"/>
+      <c r="J77" s="33"/>
+      <c r="K77" s="33"/>
+      <c r="L77" s="34"/>
+      <c r="M77" s="33"/>
+      <c r="N77" s="33"/>
+      <c r="O77" s="33"/>
+      <c r="P77" s="33"/>
+      <c r="Q77" s="33"/>
+      <c r="R77" s="33"/>
+      <c r="S77" s="33"/>
+    </row>
+    <row r="78" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>73</v>
+      </c>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="33"/>
+      <c r="J78" s="33"/>
+      <c r="K78" s="33"/>
+      <c r="L78" s="34"/>
+      <c r="M78" s="33"/>
+      <c r="N78" s="33"/>
+      <c r="O78" s="33"/>
+      <c r="P78" s="33"/>
+      <c r="Q78" s="33"/>
+      <c r="R78" s="33"/>
+      <c r="S78" s="33"/>
+    </row>
+    <row r="79" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>74</v>
+      </c>
+      <c r="B79" s="33"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="33"/>
+      <c r="I79" s="33"/>
+      <c r="J79" s="33"/>
+      <c r="K79" s="33"/>
+      <c r="L79" s="34"/>
+      <c r="M79" s="33"/>
+      <c r="N79" s="33"/>
+      <c r="O79" s="33"/>
+      <c r="P79" s="33"/>
+      <c r="Q79" s="33"/>
+      <c r="R79" s="33"/>
+      <c r="S79" s="33"/>
+    </row>
+    <row r="80" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>75</v>
+      </c>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="33"/>
+      <c r="I80" s="33"/>
+      <c r="J80" s="33"/>
+      <c r="K80" s="33"/>
+      <c r="L80" s="34"/>
+      <c r="M80" s="33"/>
+      <c r="N80" s="33"/>
+      <c r="O80" s="33"/>
+      <c r="P80" s="33"/>
+      <c r="Q80" s="33"/>
+      <c r="R80" s="33"/>
+      <c r="S80" s="33"/>
+    </row>
+    <row r="81" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>76</v>
+      </c>
+      <c r="B81" s="33"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="33"/>
+      <c r="J81" s="33"/>
+      <c r="K81" s="33"/>
+      <c r="L81" s="34"/>
+      <c r="M81" s="33"/>
+      <c r="N81" s="33"/>
+      <c r="O81" s="33"/>
+      <c r="P81" s="33"/>
+      <c r="Q81" s="33"/>
+      <c r="R81" s="33"/>
+      <c r="S81" s="33"/>
+    </row>
+    <row r="82" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>77</v>
+      </c>
+      <c r="B82" s="33"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="33"/>
+      <c r="J82" s="33"/>
+      <c r="K82" s="33"/>
+      <c r="L82" s="34"/>
+      <c r="M82" s="33"/>
+      <c r="N82" s="33"/>
+      <c r="O82" s="33"/>
+      <c r="P82" s="33"/>
+      <c r="Q82" s="33"/>
+      <c r="R82" s="33"/>
+      <c r="S82" s="33"/>
+    </row>
+    <row r="83" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>78</v>
+      </c>
+      <c r="B83" s="33"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="33"/>
+      <c r="J83" s="33"/>
+      <c r="K83" s="33"/>
+      <c r="L83" s="34"/>
+      <c r="M83" s="33"/>
+      <c r="N83" s="33"/>
+      <c r="O83" s="33"/>
+      <c r="P83" s="33"/>
+      <c r="Q83" s="33"/>
+      <c r="R83" s="33"/>
+      <c r="S83" s="33"/>
+    </row>
+    <row r="84" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>79</v>
+      </c>
+      <c r="B84" s="33"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="33"/>
+      <c r="I84" s="33"/>
+      <c r="J84" s="33"/>
+      <c r="K84" s="33"/>
+      <c r="L84" s="34"/>
+      <c r="M84" s="33"/>
+      <c r="N84" s="33"/>
+      <c r="O84" s="33"/>
+      <c r="P84" s="33"/>
+      <c r="Q84" s="33"/>
+      <c r="R84" s="33"/>
+      <c r="S84" s="33"/>
+    </row>
+    <row r="85" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>80</v>
+      </c>
+      <c r="B85" s="33"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="33"/>
+      <c r="I85" s="33"/>
+      <c r="J85" s="33"/>
+      <c r="K85" s="33"/>
+      <c r="L85" s="34"/>
+      <c r="M85" s="33"/>
+      <c r="N85" s="33"/>
+      <c r="O85" s="33"/>
+      <c r="P85" s="33"/>
+      <c r="Q85" s="33"/>
+      <c r="R85" s="33"/>
+      <c r="S85" s="33"/>
+    </row>
+    <row r="86" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>81</v>
+      </c>
+      <c r="B86" s="33"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="33"/>
+      <c r="I86" s="33"/>
+      <c r="J86" s="33"/>
+      <c r="K86" s="33"/>
+      <c r="L86" s="34"/>
+      <c r="M86" s="33"/>
+      <c r="N86" s="33"/>
+      <c r="O86" s="33"/>
+      <c r="P86" s="33"/>
+      <c r="Q86" s="33"/>
+      <c r="R86" s="33"/>
+      <c r="S86" s="33"/>
+    </row>
+    <row r="87" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>82</v>
+      </c>
+      <c r="B87" s="33"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="33"/>
+      <c r="I87" s="33"/>
+      <c r="J87" s="33"/>
+      <c r="K87" s="33"/>
+      <c r="L87" s="34"/>
+      <c r="M87" s="33"/>
+      <c r="N87" s="33"/>
+      <c r="O87" s="33"/>
+      <c r="P87" s="33"/>
+      <c r="Q87" s="33"/>
+      <c r="R87" s="33"/>
+      <c r="S87" s="33"/>
+    </row>
+    <row r="88" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>83</v>
+      </c>
+      <c r="B88" s="33"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="33"/>
+      <c r="J88" s="33"/>
+      <c r="K88" s="33"/>
+      <c r="L88" s="34"/>
+      <c r="M88" s="33"/>
+      <c r="N88" s="33"/>
+      <c r="O88" s="33"/>
+      <c r="P88" s="33"/>
+      <c r="Q88" s="33"/>
+      <c r="R88" s="33"/>
+      <c r="S88" s="33"/>
+    </row>
+    <row r="89" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>84</v>
+      </c>
+      <c r="B89" s="33"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="33"/>
+      <c r="I89" s="33"/>
+      <c r="J89" s="33"/>
+      <c r="K89" s="33"/>
+      <c r="L89" s="34"/>
+      <c r="M89" s="33"/>
+      <c r="N89" s="33"/>
+      <c r="O89" s="33"/>
+      <c r="P89" s="33"/>
+      <c r="Q89" s="33"/>
+      <c r="R89" s="33"/>
+      <c r="S89" s="33"/>
+    </row>
+    <row r="90" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>85</v>
+      </c>
+      <c r="B90" s="33"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="33"/>
+      <c r="J90" s="33"/>
+      <c r="K90" s="33"/>
+      <c r="L90" s="34"/>
+      <c r="M90" s="33"/>
+      <c r="N90" s="33"/>
+      <c r="O90" s="33"/>
+      <c r="P90" s="33"/>
+      <c r="Q90" s="33"/>
+      <c r="R90" s="33"/>
+      <c r="S90" s="33"/>
+    </row>
+    <row r="91" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>86</v>
+      </c>
+      <c r="B91" s="33"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="33"/>
+      <c r="I91" s="33"/>
+      <c r="J91" s="33"/>
+      <c r="K91" s="33"/>
+      <c r="L91" s="34"/>
+      <c r="M91" s="33"/>
+      <c r="N91" s="33"/>
+      <c r="O91" s="33"/>
+      <c r="P91" s="33"/>
+      <c r="Q91" s="33"/>
+      <c r="R91" s="33"/>
+      <c r="S91" s="33"/>
+    </row>
+    <row r="92" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>87</v>
+      </c>
+      <c r="B92" s="33"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="33"/>
+      <c r="I92" s="33"/>
+      <c r="J92" s="33"/>
+      <c r="K92" s="33"/>
+      <c r="L92" s="34"/>
+      <c r="M92" s="33"/>
+      <c r="N92" s="33"/>
+      <c r="O92" s="33"/>
+      <c r="P92" s="33"/>
+      <c r="Q92" s="33"/>
+      <c r="R92" s="33"/>
+      <c r="S92" s="33"/>
+    </row>
+    <row r="93" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>88</v>
+      </c>
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="33"/>
+      <c r="I93" s="33"/>
+      <c r="J93" s="33"/>
+      <c r="K93" s="33"/>
+      <c r="L93" s="34"/>
+      <c r="M93" s="33"/>
+      <c r="N93" s="33"/>
+      <c r="O93" s="33"/>
+      <c r="P93" s="33"/>
+      <c r="Q93" s="33"/>
+      <c r="R93" s="33"/>
+      <c r="S93" s="33"/>
+    </row>
+    <row r="94" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>89</v>
+      </c>
+      <c r="B94" s="33"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="33"/>
+      <c r="H94" s="33"/>
+      <c r="I94" s="33"/>
+      <c r="J94" s="33"/>
+      <c r="K94" s="33"/>
+      <c r="L94" s="34"/>
+      <c r="M94" s="33"/>
+      <c r="N94" s="33"/>
+      <c r="O94" s="33"/>
+      <c r="P94" s="33"/>
+      <c r="Q94" s="33"/>
+      <c r="R94" s="33"/>
+      <c r="S94" s="33"/>
+    </row>
+    <row r="95" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>90</v>
+      </c>
+      <c r="B95" s="33"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="33"/>
+      <c r="H95" s="33"/>
+      <c r="I95" s="33"/>
+      <c r="J95" s="33"/>
+      <c r="K95" s="33"/>
+      <c r="L95" s="34"/>
+      <c r="M95" s="33"/>
+      <c r="N95" s="33"/>
+      <c r="O95" s="33"/>
+      <c r="P95" s="33"/>
+      <c r="Q95" s="33"/>
+      <c r="R95" s="33"/>
+      <c r="S95" s="33"/>
+    </row>
+    <row r="96" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>91</v>
+      </c>
+      <c r="B96" s="33"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="33"/>
+      <c r="H96" s="33"/>
+      <c r="I96" s="33"/>
+      <c r="J96" s="33"/>
+      <c r="K96" s="33"/>
+      <c r="L96" s="34"/>
+      <c r="M96" s="33"/>
+      <c r="N96" s="33"/>
+      <c r="O96" s="33"/>
+      <c r="P96" s="33"/>
+      <c r="Q96" s="33"/>
+      <c r="R96" s="33"/>
+      <c r="S96" s="33"/>
+    </row>
+    <row r="97" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>92</v>
+      </c>
+      <c r="B97" s="33"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="33"/>
+      <c r="H97" s="33"/>
+      <c r="I97" s="33"/>
+      <c r="J97" s="33"/>
+      <c r="K97" s="33"/>
+      <c r="L97" s="34"/>
+      <c r="M97" s="33"/>
+      <c r="N97" s="33"/>
+      <c r="O97" s="33"/>
+      <c r="P97" s="33"/>
+      <c r="Q97" s="33"/>
+      <c r="R97" s="33"/>
+      <c r="S97" s="33"/>
+    </row>
+    <row r="98" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>93</v>
+      </c>
+      <c r="B98" s="33"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="33"/>
+      <c r="G98" s="33"/>
+      <c r="H98" s="33"/>
+      <c r="I98" s="33"/>
+      <c r="J98" s="33"/>
+      <c r="K98" s="33"/>
+      <c r="L98" s="34"/>
+      <c r="M98" s="33"/>
+      <c r="N98" s="33"/>
+      <c r="O98" s="33"/>
+      <c r="P98" s="33"/>
+      <c r="Q98" s="33"/>
+      <c r="R98" s="33"/>
+      <c r="S98" s="33"/>
+    </row>
+    <row r="99" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>94</v>
+      </c>
+      <c r="B99" s="33"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="33"/>
+      <c r="G99" s="33"/>
+      <c r="H99" s="33"/>
+      <c r="I99" s="33"/>
+      <c r="J99" s="33"/>
+      <c r="K99" s="33"/>
+      <c r="L99" s="34"/>
+      <c r="M99" s="33"/>
+      <c r="N99" s="33"/>
+      <c r="O99" s="33"/>
+      <c r="P99" s="33"/>
+      <c r="Q99" s="33"/>
+      <c r="R99" s="33"/>
+      <c r="S99" s="33"/>
+    </row>
+    <row r="100" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>95</v>
+      </c>
+      <c r="B100" s="33"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="33"/>
+      <c r="G100" s="33"/>
+      <c r="H100" s="33"/>
+      <c r="I100" s="33"/>
+      <c r="J100" s="33"/>
+      <c r="K100" s="33"/>
+      <c r="L100" s="34"/>
+      <c r="M100" s="33"/>
+      <c r="N100" s="33"/>
+      <c r="O100" s="33"/>
+      <c r="P100" s="33"/>
+      <c r="Q100" s="33"/>
+      <c r="R100" s="33"/>
+      <c r="S100" s="33"/>
+    </row>
+    <row r="101" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>96</v>
+      </c>
+      <c r="B101" s="33"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="33"/>
+      <c r="F101" s="33"/>
+      <c r="G101" s="33"/>
+      <c r="H101" s="33"/>
+      <c r="I101" s="33"/>
+      <c r="J101" s="33"/>
+      <c r="K101" s="33"/>
+      <c r="L101" s="34"/>
+      <c r="M101" s="33"/>
+      <c r="N101" s="33"/>
+      <c r="O101" s="33"/>
+      <c r="P101" s="33"/>
+      <c r="Q101" s="33"/>
+      <c r="R101" s="33"/>
+      <c r="S101" s="33"/>
+    </row>
+    <row r="102" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>97</v>
+      </c>
+      <c r="B102" s="33"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="33"/>
+      <c r="G102" s="33"/>
+      <c r="H102" s="33"/>
+      <c r="I102" s="33"/>
+      <c r="J102" s="33"/>
+      <c r="K102" s="33"/>
+      <c r="L102" s="34"/>
+      <c r="M102" s="33"/>
+      <c r="N102" s="33"/>
+      <c r="O102" s="33"/>
+      <c r="P102" s="33"/>
+      <c r="Q102" s="33"/>
+      <c r="R102" s="33"/>
+      <c r="S102" s="33"/>
+    </row>
+    <row r="103" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>98</v>
+      </c>
+      <c r="B103" s="33"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
+      <c r="E103" s="33"/>
+      <c r="F103" s="33"/>
+      <c r="G103" s="33"/>
+      <c r="H103" s="33"/>
+      <c r="I103" s="33"/>
+      <c r="J103" s="33"/>
+      <c r="K103" s="33"/>
+      <c r="L103" s="34"/>
+      <c r="M103" s="33"/>
+      <c r="N103" s="33"/>
+      <c r="O103" s="33"/>
+      <c r="P103" s="33"/>
+      <c r="Q103" s="33"/>
+      <c r="R103" s="33"/>
+      <c r="S103" s="33"/>
+    </row>
+    <row r="104" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>99</v>
+      </c>
+      <c r="B104" s="33"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="33"/>
+      <c r="E104" s="33"/>
+      <c r="F104" s="33"/>
+      <c r="G104" s="33"/>
+      <c r="H104" s="33"/>
+      <c r="I104" s="33"/>
+      <c r="J104" s="33"/>
+      <c r="K104" s="33"/>
+      <c r="L104" s="34"/>
+      <c r="M104" s="33"/>
+      <c r="N104" s="33"/>
+      <c r="O104" s="33"/>
+      <c r="P104" s="33"/>
+      <c r="Q104" s="33"/>
+      <c r="R104" s="33"/>
+      <c r="S104" s="33"/>
+    </row>
+    <row r="105" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>100</v>
+      </c>
+      <c r="B105" s="33"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
+      <c r="E105" s="33"/>
+      <c r="F105" s="33"/>
+      <c r="G105" s="33"/>
+      <c r="H105" s="33"/>
+      <c r="I105" s="33"/>
+      <c r="J105" s="33"/>
+      <c r="K105" s="33"/>
+      <c r="L105" s="34"/>
+      <c r="M105" s="33"/>
+      <c r="N105" s="33"/>
+      <c r="O105" s="33"/>
+      <c r="P105" s="33"/>
+      <c r="Q105" s="33"/>
+      <c r="R105" s="33"/>
+      <c r="S105" s="33"/>
+    </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -11751,13 +14474,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
